--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.004027726051045705</v>
+        <v>0.005838451588776686</v>
       </c>
       <c r="C2">
-        <v>0.0007331249999999998</v>
+        <v>0.0010627125</v>
       </c>
       <c r="D2">
-        <v>0.0002139514849820077</v>
+        <v>0.0003101366308391363</v>
       </c>
       <c r="E2">
-        <v>5.216106210067114E-05</v>
+        <v>7.561086132332067E-05</v>
       </c>
       <c r="F2">
-        <v>0.0004470563924042927</v>
+        <v>0.0006480373966417007</v>
       </c>
       <c r="G2">
-        <v>0.0001018050655827675</v>
+        <v>0.0001475730820230203</v>
       </c>
       <c r="H2">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I2">
-        <v>0.00559234061468984</v>
+        <v>0.008106462438859098</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.003795665013667573</v>
+        <v>0.005502063980681606</v>
       </c>
       <c r="C3">
-        <v>0.0009343749999999997</v>
+        <v>0.0013544375</v>
       </c>
       <c r="D3">
-        <v>0.0002628546815493237</v>
+        <v>0.0003810250036023675</v>
       </c>
       <c r="E3">
-        <v>1.994393550908014E-05</v>
+        <v>2.891003521185792E-05</v>
       </c>
       <c r="F3">
-        <v>0.0004925197543437121</v>
+        <v>0.0007139395047747552</v>
       </c>
       <c r="G3">
-        <v>9.027996381868055E-05</v>
+        <v>0.0001308666953789048</v>
       </c>
       <c r="H3">
-        <v>4.220642746790262E-05</v>
+        <v>6.118096920782056E-05</v>
       </c>
       <c r="I3">
-        <v>0.005637844776356272</v>
+        <v>0.008172423688857311</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.003547599766815089</v>
+        <v>0.00514247722720066</v>
       </c>
       <c r="C4">
-        <v>0.0007331249999999998</v>
+        <v>0.0010627125</v>
       </c>
       <c r="D4">
-        <v>0.0001314273407746619</v>
+        <v>0.0001905125018011837</v>
       </c>
       <c r="E4">
-        <v>1.840978662376628E-05</v>
+        <v>2.668618634940731E-05</v>
       </c>
       <c r="F4">
-        <v>0.000391490061145002</v>
+        <v>0.0005674903755901901</v>
       </c>
       <c r="G4">
-        <v>8.643826323065165E-05</v>
+        <v>0.0001252978998308663</v>
       </c>
       <c r="H4">
-        <v>3.670124127643706E-05</v>
+        <v>5.320084278940918E-05</v>
       </c>
       <c r="I4">
-        <v>0.004945191459865608</v>
+        <v>0.007168377533561716</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.004115749203154649</v>
+        <v>0.005966046888398957</v>
       </c>
       <c r="C5">
-        <v>0.0007906249999999999</v>
+        <v>0.0011460625</v>
       </c>
       <c r="D5">
-        <v>0.0001772740875565206</v>
+        <v>0.0002569703512667131</v>
       </c>
       <c r="E5">
-        <v>3.2217126591591E-05</v>
+        <v>4.670082611146276E-05</v>
       </c>
       <c r="F5">
-        <v>0.0004723138157039702</v>
+        <v>0.000684649678937842</v>
       </c>
       <c r="G5">
-        <v>7.107146087853579E-05</v>
+        <v>0.0001030227176387123</v>
       </c>
       <c r="H5">
-        <v>3.119605508497151E-05</v>
+        <v>4.522071637099782E-05</v>
       </c>
       <c r="I5">
-        <v>0.005690446748970237</v>
+        <v>0.008248673678724684</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.00382767343261628</v>
+        <v>0.005548462271453342</v>
       </c>
       <c r="C6">
-        <v>0.0008193749999999998</v>
+        <v>0.0011877375</v>
       </c>
       <c r="D6">
-        <v>0.0002170079347674648</v>
+        <v>0.0003145671541368383</v>
       </c>
       <c r="E6">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F6">
-        <v>0.0005051484659935509</v>
+        <v>0.0007322456459228258</v>
       </c>
       <c r="G6">
-        <v>7.299231117255022E-05</v>
+        <v>0.0001058071154127315</v>
       </c>
       <c r="H6">
-        <v>2.75259309573278E-05</v>
+        <v>3.990063209205689E-05</v>
       </c>
       <c r="I6">
-        <v>0.005497337755442823</v>
+        <v>0.007968749598541904</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.004105079730171747</v>
+        <v>0.005950580791475048</v>
       </c>
       <c r="C7">
-        <v>0.0008481249999999998</v>
+        <v>0.0012294125</v>
       </c>
       <c r="D7">
-        <v>0.0002506288824074946</v>
+        <v>0.0003633029104115598</v>
       </c>
       <c r="E7">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F7">
-        <v>0.0005304058892932288</v>
+        <v>0.0007688579282189669</v>
       </c>
       <c r="G7">
-        <v>6.915061058452131E-05</v>
+        <v>0.0001002383198646931</v>
       </c>
       <c r="H7">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I7">
-        <v>0.005854860599222324</v>
+        <v>0.008487002277307493</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.004195770250526419</v>
+        <v>0.006082042615328295</v>
       </c>
       <c r="C8">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D8">
-        <v>0.0002445159828365802</v>
+        <v>0.000354441863816156</v>
       </c>
       <c r="E8">
-        <v>3.068297770627713E-05</v>
+        <v>4.447697724901216E-05</v>
       </c>
       <c r="F8">
-        <v>0.0004950454966736798</v>
+        <v>0.000717600733004369</v>
       </c>
       <c r="G8">
-        <v>5.954635911444889E-05</v>
+        <v>8.631633099459677E-05</v>
       </c>
       <c r="H8">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I8">
-        <v>0.005814656501304158</v>
+        <v>0.008428723815368725</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.004691900744231386</v>
+        <v>0.006801216122290198</v>
       </c>
       <c r="C9">
-        <v>0.00071875</v>
+        <v>0.001041875</v>
       </c>
       <c r="D9">
-        <v>0.0002139514849820077</v>
+        <v>0.0003101366308391363</v>
       </c>
       <c r="E9">
-        <v>4.909276433004343E-05</v>
+        <v>7.116316359841948E-05</v>
       </c>
       <c r="F9">
-        <v>0.0004394791654143894</v>
+        <v>0.0006370537119528582</v>
       </c>
       <c r="G9">
-        <v>6.338805970247789E-05</v>
+        <v>9.18851265426353E-05</v>
       </c>
       <c r="H9">
-        <v>2.018568270204038E-05</v>
+        <v>2.926046353417505E-05</v>
       </c>
       <c r="I9">
-        <v>0.006196747901362345</v>
+        <v>0.008982590218757421</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.005094673349335961</v>
+        <v>0.007385061281167862</v>
       </c>
       <c r="C10">
-        <v>0.0008768750000000002</v>
+        <v>0.0012710875</v>
       </c>
       <c r="D10">
-        <v>0.0001956127862692642</v>
+        <v>0.0002835534910529247</v>
       </c>
       <c r="E10">
-        <v>9.204893311883143E-05</v>
+        <v>0.0001334309317470365</v>
       </c>
       <c r="F10">
-        <v>0.0004217989691046152</v>
+        <v>0.0006114251143455596</v>
       </c>
       <c r="G10">
-        <v>4.802125735036199E-05</v>
+        <v>6.960994435048128E-05</v>
       </c>
       <c r="H10">
-        <v>1.101037238293112E-05</v>
+        <v>1.596025283682276E-05</v>
       </c>
       <c r="I10">
-        <v>0.006740040667561966</v>
+        <v>0.009770128515500687</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.00541475753882303</v>
+        <v>0.007849044188885211</v>
       </c>
       <c r="C11">
-        <v>0.00054625</v>
+        <v>0.000791825</v>
       </c>
       <c r="D11">
-        <v>0.0001681047382001489</v>
+        <v>0.0002436787813736072</v>
       </c>
       <c r="E11">
-        <v>9.818552866008687E-05</v>
+        <v>0.000142326327196839</v>
       </c>
       <c r="F11">
-        <v>0.0002348940366870013</v>
+        <v>0.0003404942253541139</v>
       </c>
       <c r="G11">
-        <v>9.604251470072403E-06</v>
+        <v>1.392198887009626E-05</v>
       </c>
       <c r="H11">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I11">
-        <v>0.006484641528287091</v>
+        <v>0.009399910806656161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.003945037635428209</v>
+        <v>0.005718589337616372</v>
       </c>
       <c r="C12">
-        <v>0.00046</v>
+        <v>0.0006668000000000002</v>
       </c>
       <c r="D12">
-        <v>0.0001711611879856061</v>
+        <v>0.000248109304671309</v>
       </c>
       <c r="E12">
-        <v>5.983180652724043E-05</v>
+        <v>8.673010563557373E-05</v>
       </c>
       <c r="F12">
-        <v>0.0002096366133873236</v>
+        <v>0.0003038819430579726</v>
       </c>
       <c r="G12">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="H12">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I12">
-        <v>0.004870466720690182</v>
+        <v>0.00706005915077438</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.003440905036986065</v>
+        <v>0.004987816257961543</v>
       </c>
       <c r="C13">
-        <v>0.00031625</v>
+        <v>0.000458425</v>
       </c>
       <c r="D13">
-        <v>0.0001008628429200894</v>
+        <v>0.0001462072688241643</v>
       </c>
       <c r="E13">
-        <v>7.977574203632055E-05</v>
+        <v>0.0001156401408474317</v>
       </c>
       <c r="F13">
-        <v>0.0001313386011583233</v>
+        <v>0.0001903838679399347</v>
       </c>
       <c r="G13">
-        <v>3.457530529226066E-05</v>
+        <v>5.011915993234654E-05</v>
       </c>
       <c r="H13">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I13">
-        <v>0.004112882838712167</v>
+        <v>0.005961891906202772</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.002726050347131595</v>
+        <v>0.003951587764059451</v>
       </c>
       <c r="C14">
-        <v>0.000273125</v>
+        <v>0.0003959125</v>
       </c>
       <c r="D14">
-        <v>0.0001039192927055466</v>
+        <v>0.0001506377921218663</v>
       </c>
       <c r="E14">
-        <v>5.062691321535728E-05</v>
+        <v>7.338701246087007E-05</v>
       </c>
       <c r="F14">
-        <v>8.84009815488714E-05</v>
+        <v>0.0001281429880364945</v>
       </c>
       <c r="G14">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H14">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I14">
-        <v>0.003278189749036682</v>
+        <v>0.004751949836212303</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.001925839873413906</v>
+        <v>0.002791630494766071</v>
       </c>
       <c r="C15">
-        <v>0.000388125</v>
+        <v>0.0005626124999999999</v>
       </c>
       <c r="D15">
-        <v>6.724189528005956E-05</v>
+        <v>9.747151254944285E-05</v>
       </c>
       <c r="E15">
-        <v>2.914882882096328E-05</v>
+        <v>4.225312838656156E-05</v>
       </c>
       <c r="F15">
-        <v>7.577226989903264E-05</v>
+        <v>0.0001098368468884239</v>
       </c>
       <c r="G15">
-        <v>2.305020352817376E-05</v>
+        <v>3.341277328823101E-05</v>
       </c>
       <c r="I15">
-        <v>0.002509178070942136</v>
+        <v>0.003637217255878731</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.001184311501102181</v>
+        <v>0.001716736758554204</v>
       </c>
       <c r="C16">
-        <v>0.00031625</v>
+        <v>0.000458425</v>
       </c>
       <c r="D16">
-        <v>4.584674678185877E-05</v>
+        <v>6.645784946552919E-05</v>
       </c>
       <c r="E16">
-        <v>1.534148885313857E-05</v>
+        <v>2.223848862450608E-05</v>
       </c>
       <c r="F16">
-        <v>5.809207358925834E-05</v>
+        <v>8.420824928112496E-05</v>
       </c>
       <c r="G16">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="I16">
-        <v>0.001640971163560596</v>
+        <v>0.002378694721439576</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0009202420447753429</v>
+        <v>0.001333950859687388</v>
       </c>
       <c r="C17">
-        <v>0.0004456249999999999</v>
+        <v>0.0006459625</v>
       </c>
       <c r="D17">
-        <v>1.528224892728627E-05</v>
+        <v>2.215261648850975E-05</v>
       </c>
       <c r="E17">
-        <v>3.068297770627715E-06</v>
+        <v>4.447697724901217E-06</v>
       </c>
       <c r="F17">
-        <v>3.283465028958083E-05</v>
+        <v>4.759596698498367E-05</v>
       </c>
       <c r="G17">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="I17">
-        <v>0.001442023295585026</v>
+        <v>0.002090306811948033</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.0006001578552882674</v>
+        <v>0.0008699679519700362</v>
       </c>
       <c r="C18">
-        <v>0.0004024999999999999</v>
+        <v>0.00058345</v>
       </c>
       <c r="D18">
-        <v>2.750804806911526E-05</v>
+        <v>3.987470967931753E-05</v>
       </c>
       <c r="E18">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F18">
-        <v>6.061781591922613E-05</v>
+        <v>8.78694775107391E-05</v>
       </c>
       <c r="G18">
-        <v>1.536680235211584E-05</v>
+        <v>2.2275182192154E-05</v>
       </c>
       <c r="I18">
-        <v>0.00111228711716998</v>
+        <v>0.001612332716802049</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0003574273449272348</v>
+        <v>0.0005181142469510439</v>
       </c>
       <c r="C19">
-        <v>0.000359375</v>
+        <v>0.0005209375</v>
       </c>
       <c r="D19">
-        <v>3.667739742548703E-05</v>
+        <v>5.316627957242336E-05</v>
       </c>
       <c r="E19">
-        <v>1.534148885313857E-06</v>
+        <v>2.223848862450609E-06</v>
       </c>
       <c r="F19">
-        <v>2.778316562964531E-05</v>
+        <v>4.027351052575543E-05</v>
       </c>
       <c r="G19">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="H19">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I19">
-        <v>0.0008172865739297489</v>
+        <v>0.001184710190209471</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0004321136558075524</v>
+        <v>0.0006263769254184259</v>
       </c>
       <c r="C20">
-        <v>0.000273125</v>
+        <v>0.0003959125</v>
       </c>
       <c r="D20">
-        <v>4.584674678185877E-05</v>
+        <v>6.645784946552919E-05</v>
       </c>
       <c r="E20">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F20">
-        <v>5.556633125929061E-05</v>
+        <v>8.054702105151086E-05</v>
       </c>
       <c r="G20">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H20">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I20">
-        <v>0.0008399811466846678</v>
+        <v>0.001217607453498558</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.0007415283723117255</v>
+        <v>0.001074893736211867</v>
       </c>
       <c r="C21">
-        <v>0.000129375</v>
+        <v>0.0001875375</v>
       </c>
       <c r="D21">
-        <v>6.41854454946023E-05</v>
+        <v>9.304098925174097E-05</v>
       </c>
       <c r="E21">
-        <v>1.0739042197197E-05</v>
+        <v>1.556694203715426E-05</v>
       </c>
       <c r="F21">
-        <v>9.850395086874244E-05</v>
+        <v>0.0001427879009549511</v>
       </c>
       <c r="G21">
-        <v>4.417955676233305E-05</v>
+        <v>6.404114880244274E-05</v>
       </c>
       <c r="I21">
-        <v>0.0010885113676346</v>
+        <v>0.001577868217258156</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.001491058849360629</v>
+        <v>0.002161387045116668</v>
       </c>
       <c r="C22">
-        <v>0.000115</v>
+        <v>0.0001667</v>
       </c>
       <c r="D22">
-        <v>9.474994334917484E-05</v>
+        <v>0.0001373462222287603</v>
       </c>
       <c r="E22">
-        <v>4.449031767410186E-05</v>
+        <v>6.449161701106765E-05</v>
       </c>
       <c r="F22">
-        <v>0.000277831656296453</v>
+        <v>0.0004027351052575542</v>
       </c>
       <c r="G22">
-        <v>8.067571234860816E-05</v>
+        <v>0.0001169447065088086</v>
       </c>
       <c r="H22">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I22">
-        <v>0.002107476603156611</v>
+        <v>0.0030549247804018</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.002832745076960621</v>
+        <v>0.004106248733298574</v>
       </c>
       <c r="C23">
-        <v>0.0002587499999999999</v>
+        <v>0.000375075</v>
       </c>
       <c r="D23">
-        <v>0.0001619918386292344</v>
+        <v>0.0002348177347782034</v>
       </c>
       <c r="E23">
-        <v>0.000128868506366364</v>
+        <v>0.0001868033044458511</v>
       </c>
       <c r="F23">
-        <v>0.0004091702574547763</v>
+        <v>0.0005931189731974888</v>
       </c>
       <c r="G23">
-        <v>0.0001133301673468544</v>
+        <v>0.0001642794686671358</v>
       </c>
       <c r="H23">
-        <v>2.202074476586224E-05</v>
+        <v>3.192050567364552E-05</v>
       </c>
       <c r="I23">
-        <v>0.003926876591523712</v>
+        <v>0.005692263720060899</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.004075738679468766</v>
+        <v>0.00590804902493429</v>
       </c>
       <c r="C24">
-        <v>0.000388125</v>
+        <v>0.0005626124999999999</v>
       </c>
       <c r="D24">
-        <v>0.0001711611879856061</v>
+        <v>0.000248109304671309</v>
       </c>
       <c r="E24">
-        <v>0.000139607548563561</v>
+        <v>0.0002023702464830054</v>
       </c>
       <c r="F24">
-        <v>0.0004319019384244861</v>
+        <v>0.000626070027264016</v>
       </c>
       <c r="G24">
-        <v>0.000144063772051086</v>
+        <v>0.0002088298330514439</v>
       </c>
       <c r="H24">
-        <v>3.303111714879335E-05</v>
+        <v>4.788075851046828E-05</v>
       </c>
       <c r="I24">
-        <v>0.005383629243642297</v>
+        <v>0.007803921694914532</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.004430498656150274</v>
+        <v>0.006422296747654357</v>
       </c>
       <c r="C25">
-        <v>0.0006612499999999999</v>
+        <v>0.0009585249999999999</v>
       </c>
       <c r="D25">
-        <v>0.0002139514849820077</v>
+        <v>0.0003101366308391363</v>
       </c>
       <c r="E25">
-        <v>6.596840206849585E-05</v>
+        <v>9.562550108537613E-05</v>
       </c>
       <c r="F25">
-        <v>0.0004394791654143894</v>
+        <v>0.0006370537119528582</v>
       </c>
       <c r="G25">
-        <v>9.796336499473852E-05</v>
+        <v>0.0001420042864749818</v>
       </c>
       <c r="H25">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I25">
-        <v>0.00592379157012048</v>
+        <v>0.008586922215122474</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.004153092358594808</v>
+        <v>0.00602017822763265</v>
       </c>
       <c r="C26">
-        <v>0.0007043749999999999</v>
+        <v>0.0010210375</v>
       </c>
       <c r="D26">
-        <v>0.0002078385854110932</v>
+        <v>0.0003012755842437326</v>
       </c>
       <c r="E26">
-        <v>5.369521098598499E-05</v>
+        <v>7.783471018577129E-05</v>
       </c>
       <c r="F26">
-        <v>0.0004647365887140667</v>
+        <v>0.0006736659942489997</v>
       </c>
       <c r="G26">
-        <v>0.0001075676164648109</v>
+        <v>0.000155926275345078</v>
       </c>
       <c r="H26">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I26">
-        <v>0.005705985856681338</v>
+        <v>0.008271198628771995</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.003913029216479503</v>
+        <v>0.005672191046844637</v>
       </c>
       <c r="C27">
-        <v>0.0009056249999999997</v>
+        <v>0.0013127625</v>
       </c>
       <c r="D27">
-        <v>0.000253685332192952</v>
+        <v>0.0003677334337092616</v>
       </c>
       <c r="E27">
-        <v>2.1478084394394E-05</v>
+        <v>3.113388407430851E-05</v>
       </c>
       <c r="F27">
-        <v>0.0005101999506534867</v>
+        <v>0.000739568102382054</v>
       </c>
       <c r="G27">
-        <v>9.412166440670957E-05</v>
+        <v>0.0001364354909269433</v>
       </c>
       <c r="H27">
-        <v>3.853630334025892E-05</v>
+        <v>5.586088492887966E-05</v>
       </c>
       <c r="I27">
-        <v>0.005736675551467304</v>
+        <v>0.008315685342866086</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.003966376581394014</v>
+        <v>0.005749521531464195</v>
       </c>
       <c r="C28">
-        <v>0.00083375</v>
+        <v>0.001208575</v>
       </c>
       <c r="D28">
-        <v>0.0001986692360547214</v>
+        <v>0.0002879840143506268</v>
       </c>
       <c r="E28">
-        <v>2.1478084394394E-05</v>
+        <v>3.113388407430851E-05</v>
       </c>
       <c r="F28">
-        <v>0.0004571593617241637</v>
+        <v>0.0006626823095601571</v>
       </c>
       <c r="G28">
-        <v>9.988421528875299E-05</v>
+        <v>0.0001447886842490011</v>
       </c>
       <c r="H28">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I28">
-        <v>0.005601173285685731</v>
+        <v>0.008119265971511403</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.004139755517366181</v>
+        <v>0.006000845606477758</v>
       </c>
       <c r="C29">
-        <v>0.0008912499999999998</v>
+        <v>0.001291925</v>
       </c>
       <c r="D29">
-        <v>0.0001681047382001489</v>
+        <v>0.0002436787813736072</v>
       </c>
       <c r="E29">
-        <v>2.301223327970786E-05</v>
+        <v>3.335773293675913E-05</v>
       </c>
       <c r="F29">
-        <v>0.0004571593617241637</v>
+        <v>0.0006626823095601571</v>
       </c>
       <c r="G29">
-        <v>8.067571234860816E-05</v>
+        <v>0.0001169447065088086</v>
       </c>
       <c r="H29">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I29">
-        <v>0.005774638059429384</v>
+        <v>0.008370714473972855</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.004297130243863991</v>
+        <v>0.006228970536105456</v>
       </c>
       <c r="C30">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D30">
-        <v>0.0001405966901310336</v>
+        <v>0.0002038040716942895</v>
       </c>
       <c r="E30">
-        <v>2.608053105033557E-05</v>
+        <v>3.780543066166033E-05</v>
       </c>
       <c r="F30">
-        <v>0.0005682920242427449</v>
+        <v>0.000823776351663179</v>
       </c>
       <c r="G30">
-        <v>9.027996381868055E-05</v>
+        <v>0.0001308666953789048</v>
       </c>
       <c r="H30">
-        <v>2.202074476586224E-05</v>
+        <v>3.192050567364552E-05</v>
       </c>
       <c r="I30">
-        <v>0.005920650197872647</v>
+        <v>0.008582368591177133</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.003862349219810715</v>
+        <v>0.005598727086456054</v>
       </c>
       <c r="C31">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D31">
-        <v>0.0001864434369128923</v>
+        <v>0.0002702619211598187</v>
       </c>
       <c r="E31">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F31">
-        <v>0.0004445306500743249</v>
+        <v>0.0006443761684120869</v>
       </c>
       <c r="G31">
-        <v>6.338805970247789E-05</v>
+        <v>9.18851265426353E-05</v>
       </c>
       <c r="H31">
-        <v>1.101037238293112E-05</v>
+        <v>1.596025283682276E-05</v>
       </c>
       <c r="I31">
-        <v>0.00537158641881899</v>
+        <v>0.007786464834931527</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.004302464980355444</v>
+        <v>0.006236703584567413</v>
       </c>
       <c r="C32">
-        <v>0.00069</v>
+        <v>0.0010002</v>
       </c>
       <c r="D32">
-        <v>0.0002811933802620671</v>
+        <v>0.000407608143388579</v>
       </c>
       <c r="E32">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F32">
-        <v>0.0005101999506534867</v>
+        <v>0.000739568102382054</v>
       </c>
       <c r="G32">
-        <v>5.954635911444889E-05</v>
+        <v>8.631633099459677E-05</v>
       </c>
       <c r="H32">
-        <v>2.569086889350594E-05</v>
+        <v>3.724058995258645E-05</v>
       </c>
       <c r="I32">
-        <v>0.005896710219214602</v>
+        <v>0.00854766603080934</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.00432380392632125</v>
+        <v>0.006267635778415237</v>
       </c>
       <c r="C33">
-        <v>0.00071875</v>
+        <v>0.001041875</v>
       </c>
       <c r="D33">
-        <v>0.0002384030832656658</v>
+        <v>0.000345580817220752</v>
       </c>
       <c r="E33">
-        <v>3.988787101816027E-05</v>
+        <v>5.782007042371584E-05</v>
       </c>
       <c r="F33">
-        <v>0.0004723138157039702</v>
+        <v>0.000684649678937842</v>
       </c>
       <c r="G33">
-        <v>7.491316146656473E-05</v>
+        <v>0.0001085915131867508</v>
       </c>
       <c r="H33">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I33">
-        <v>0.005891927664605294</v>
+        <v>0.008540733405997413</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.005161357555479096</v>
+        <v>0.007481724386942305</v>
       </c>
       <c r="C34">
-        <v>0.0006181250000000002</v>
+        <v>0.0008960125000000002</v>
       </c>
       <c r="D34">
-        <v>0.0002078385854110932</v>
+        <v>0.0003012755842437326</v>
       </c>
       <c r="E34">
-        <v>8.130989092163442E-05</v>
+        <v>0.0001178639897098823</v>
       </c>
       <c r="F34">
-        <v>0.0003940158034749698</v>
+        <v>0.0005711516038198045</v>
       </c>
       <c r="G34">
-        <v>4.225870646831857E-05</v>
+        <v>6.125675102842352E-05</v>
       </c>
       <c r="H34">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I34">
-        <v>0.00652325616239333</v>
+        <v>0.009455885237138853</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.005388083856365779</v>
+        <v>0.007810378946575438</v>
       </c>
       <c r="C35">
-        <v>0.0004743749999999999</v>
+        <v>0.0006876374999999999</v>
       </c>
       <c r="D35">
-        <v>0.0001711611879856061</v>
+        <v>0.000248109304671309</v>
       </c>
       <c r="E35">
-        <v>9.051478423351757E-05</v>
+        <v>0.0001312070828845859</v>
       </c>
       <c r="F35">
-        <v>0.0003056148219260983</v>
+        <v>0.0004430086157833096</v>
       </c>
       <c r="G35">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H35">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I35">
-        <v>0.006471322051137778</v>
+        <v>0.009380603355866678</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.004054399733502959</v>
+        <v>0.005877116831086468</v>
       </c>
       <c r="C36">
-        <v>0.000388125</v>
+        <v>0.0005626124999999999</v>
       </c>
       <c r="D36">
-        <v>0.0001742176377710634</v>
+        <v>0.0002525398279690111</v>
       </c>
       <c r="E36">
-        <v>9.511723088945913E-05</v>
+        <v>0.0001378786294719377</v>
       </c>
       <c r="F36">
-        <v>0.0001894306747475817</v>
+        <v>0.0002745921172210599</v>
       </c>
       <c r="G36">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H36">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I36">
-        <v>0.00493543664105236</v>
+        <v>0.007154237287508079</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.003763656594718866</v>
+        <v>0.005455665689909872</v>
       </c>
       <c r="C37">
-        <v>0.000359375</v>
+        <v>0.0005209375</v>
       </c>
       <c r="D37">
-        <v>0.0001008628429200894</v>
+        <v>0.0001462072688241643</v>
       </c>
       <c r="E37">
-        <v>9.358308200414528E-05</v>
+        <v>0.0001356547806094871</v>
       </c>
       <c r="F37">
-        <v>0.0001641732514479041</v>
+        <v>0.0002379798349249184</v>
       </c>
       <c r="G37">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="H37">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I37">
-        <v>0.004517975350216895</v>
+        <v>0.00654909992070571</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.002992787171704158</v>
+        <v>0.004338240187157246</v>
       </c>
       <c r="C38">
-        <v>0.0002156249999999999</v>
+        <v>0.0003125624999999999</v>
       </c>
       <c r="D38">
-        <v>8.252414420734585E-05</v>
+        <v>0.0001196241290379526</v>
       </c>
       <c r="E38">
-        <v>6.443425318318199E-05</v>
+        <v>9.340165222292553E-05</v>
       </c>
       <c r="F38">
-        <v>0.0001060811778586457</v>
+        <v>0.0001537715856437935</v>
       </c>
       <c r="G38">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="H38">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I38">
-        <v>0.003497776326079222</v>
+        <v>0.005070254900499187</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.002141896701317683</v>
+        <v>0.003104818957475285</v>
       </c>
       <c r="C39">
-        <v>0.000301875</v>
+        <v>0.0004375874999999999</v>
       </c>
       <c r="D39">
-        <v>3.973384721094428E-05</v>
+        <v>5.759680287012532E-05</v>
       </c>
       <c r="E39">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F39">
-        <v>7.577226989903264E-05</v>
+        <v>0.0001098368468884239</v>
       </c>
       <c r="G39">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="H39">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I39">
-        <v>0.00261160618749492</v>
+        <v>0.003785693490916549</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.001261665180228225</v>
+        <v>0.001828865961252565</v>
       </c>
       <c r="C40">
-        <v>0.000345</v>
+        <v>0.0005001</v>
       </c>
       <c r="D40">
-        <v>4.279029699640153E-05</v>
+        <v>6.202732616782725E-05</v>
       </c>
       <c r="E40">
-        <v>1.227319108251086E-05</v>
+        <v>1.779079089960487E-05</v>
       </c>
       <c r="F40">
-        <v>6.061781591922613E-05</v>
+        <v>8.78694775107391E-05</v>
       </c>
       <c r="G40">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="I40">
-        <v>0.001749238388342566</v>
+        <v>0.002535635124667006</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.0009735894096898552</v>
+        <v>0.001411281344306947</v>
       </c>
       <c r="C41">
-        <v>0.000359375</v>
+        <v>0.0005209375</v>
       </c>
       <c r="D41">
-        <v>1.528224892728627E-05</v>
+        <v>2.215261648850975E-05</v>
       </c>
       <c r="E41">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F41">
-        <v>4.798910426938736E-05</v>
+        <v>6.956333636266844E-05</v>
       </c>
       <c r="G41">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="I41">
-        <v>0.001435026813426031</v>
+        <v>0.002080164954766255</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.0006321662742369746</v>
+        <v>0.0009163662427417711</v>
       </c>
       <c r="C42">
-        <v>0.0004024999999999999</v>
+        <v>0.00058345</v>
       </c>
       <c r="D42">
-        <v>2.445159828365802E-05</v>
+        <v>3.544418638161559E-05</v>
       </c>
       <c r="E42">
-        <v>7.670744426569283E-06</v>
+        <v>1.111924431225304E-05</v>
       </c>
       <c r="F42">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G42">
-        <v>2.88127544102172E-05</v>
+        <v>4.176596661028876E-05</v>
       </c>
       <c r="I42">
-        <v>0.001146116217956774</v>
+        <v>0.001661370204638211</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0004427831287904547</v>
+        <v>0.0006418430223423376</v>
       </c>
       <c r="C43">
-        <v>0.0004456249999999999</v>
+        <v>0.0006459625</v>
       </c>
       <c r="D43">
-        <v>4.584674678185877E-05</v>
+        <v>6.645784946552919E-05</v>
       </c>
       <c r="E43">
-        <v>3.068297770627715E-06</v>
+        <v>4.447697724901217E-06</v>
       </c>
       <c r="F43">
-        <v>4.041187727948407E-05</v>
+        <v>5.857965167382605E-05</v>
       </c>
       <c r="G43">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="H43">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I43">
-        <v>0.000998778615626392</v>
+        <v>0.001447794741086257</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0004907957572135162</v>
+        <v>0.0007114404584999407</v>
       </c>
       <c r="C44">
-        <v>0.0004456249999999999</v>
+        <v>0.0006459625</v>
       </c>
       <c r="D44">
-        <v>3.056449785457253E-05</v>
+        <v>4.43052329770195E-05</v>
       </c>
       <c r="E44">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F44">
-        <v>5.556633125929061E-05</v>
+        <v>8.054702105151086E-05</v>
       </c>
       <c r="G44">
-        <v>1.152510176408688E-05</v>
+        <v>1.670638664411551E-05</v>
       </c>
       <c r="I44">
-        <v>0.001040213283632722</v>
+        <v>0.001507856994622389</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.0006615073249399568</v>
+        <v>0.0009588980092825285</v>
       </c>
       <c r="C45">
-        <v>0.00014375</v>
+        <v>0.000208375</v>
       </c>
       <c r="D45">
-        <v>5.80725459236878E-05</v>
+        <v>8.417994265633698E-05</v>
       </c>
       <c r="E45">
-        <v>9.204893311883142E-06</v>
+        <v>1.334309317470365E-05</v>
       </c>
       <c r="F45">
-        <v>9.345246620880695E-05</v>
+        <v>0.0001354654444957228</v>
       </c>
       <c r="G45">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H45">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I45">
-        <v>0.0009982985324618104</v>
+        <v>0.001447098829229424</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.001536404109537964</v>
+        <v>0.002227117957043292</v>
       </c>
       <c r="C46">
-        <v>0.000115</v>
+        <v>0.0001667</v>
       </c>
       <c r="D46">
-        <v>9.169349356371754E-05</v>
+        <v>0.0001329156989310584</v>
       </c>
       <c r="E46">
-        <v>4.602446655941571E-05</v>
+        <v>6.671546587351826E-05</v>
       </c>
       <c r="F46">
-        <v>0.000287934625616324</v>
+        <v>0.0004173800181760107</v>
       </c>
       <c r="G46">
-        <v>8.451741293663715E-05</v>
+        <v>0.000122513502056847</v>
       </c>
       <c r="H46">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I46">
-        <v>0.002165244232341702</v>
+        <v>0.003138662726359668</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.002920768229069566</v>
+        <v>0.004233844032920843</v>
       </c>
       <c r="C47">
-        <v>0.0002443749999999999</v>
+        <v>0.0003542375</v>
       </c>
       <c r="D47">
-        <v>0.0001558789390583199</v>
+        <v>0.0002259566881827994</v>
       </c>
       <c r="E47">
-        <v>0.0001334709530223055</v>
+        <v>0.0001934748510332029</v>
       </c>
       <c r="F47">
-        <v>0.0004243247114345827</v>
+        <v>0.0006150863425751739</v>
       </c>
       <c r="G47">
-        <v>0.0001190927182288978</v>
+        <v>0.0001726326619891935</v>
       </c>
       <c r="H47">
-        <v>2.018568270204038E-05</v>
+        <v>2.926046353417505E-05</v>
       </c>
       <c r="I47">
-        <v>0.004018096233515712</v>
+        <v>0.005824492540235387</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.00420110498701787</v>
+        <v>0.006089775663790254</v>
       </c>
       <c r="C48">
-        <v>0.0003737499999999999</v>
+        <v>0.0005417750000000001</v>
       </c>
       <c r="D48">
-        <v>0.0001650482884146917</v>
+        <v>0.0002392482580759052</v>
       </c>
       <c r="E48">
-        <v>0.0001457441441048164</v>
+        <v>0.0002112656419328079</v>
       </c>
       <c r="F48">
-        <v>0.0004470563924042927</v>
+        <v>0.0006480373966417007</v>
       </c>
       <c r="G48">
-        <v>0.0001517471732271439</v>
+        <v>0.0002199674241475208</v>
       </c>
       <c r="H48">
-        <v>3.119605508497151E-05</v>
+        <v>4.522071637099782E-05</v>
       </c>
       <c r="I48">
-        <v>0.005515647040253786</v>
+        <v>0.007995290100959188</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.004569201804928008</v>
+        <v>0.006623356007665206</v>
       </c>
       <c r="C49">
-        <v>0.0006468749999999999</v>
+        <v>0.0009376874999999999</v>
       </c>
       <c r="D49">
-        <v>0.0002078385854110932</v>
+        <v>0.0003012755842437326</v>
       </c>
       <c r="E49">
-        <v>6.903669983912359E-05</v>
+        <v>0.0001000731988102774</v>
       </c>
       <c r="F49">
-        <v>0.0004571593617241637</v>
+        <v>0.0006626823095601571</v>
       </c>
       <c r="G49">
-        <v>0.0001037259158767819</v>
+        <v>0.0001503574797970396</v>
       </c>
       <c r="H49">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I49">
-        <v>0.006066682802225924</v>
+        <v>0.008794052375052706</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.128504360547613</v>
+        <v>1.446667930714126</v>
       </c>
       <c r="C2">
-        <v>0.06121224000000001</v>
+        <v>0.04160376</v>
       </c>
       <c r="D2">
-        <v>0.23782785018049</v>
+        <v>0.161643043943908</v>
       </c>
       <c r="E2">
-        <v>0.2005129197941839</v>
+        <v>0.1362814265907681</v>
       </c>
       <c r="F2">
-        <v>0.1877985291432797</v>
+        <v>0.1276399121291756</v>
       </c>
       <c r="G2">
-        <v>0.3389978367211864</v>
+        <v>0.2304046484733679</v>
       </c>
       <c r="H2">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I2">
-        <v>3.221638059345278</v>
+        <v>2.189631626417638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.00586867884719</v>
+        <v>1.363316864507418</v>
       </c>
       <c r="C3">
-        <v>0.07801560000000002</v>
+        <v>0.0530244</v>
       </c>
       <c r="D3">
-        <v>0.292188501650316</v>
+        <v>0.1985900254168013</v>
       </c>
       <c r="E3">
-        <v>0.07666670462718797</v>
+        <v>0.05210760428470545</v>
       </c>
       <c r="F3">
-        <v>0.206896684649376</v>
+        <v>0.1406202421762104</v>
       </c>
       <c r="G3">
-        <v>0.3006207231301087</v>
+        <v>0.2043211033631751</v>
       </c>
       <c r="H3">
-        <v>0.1706710475606729</v>
+        <v>0.1159989783360782</v>
       </c>
       <c r="I3">
-        <v>3.130927940464852</v>
+        <v>2.127979218084389</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.874775363926042</v>
+        <v>1.274217448907144</v>
       </c>
       <c r="C4">
-        <v>0.06121224000000001</v>
+        <v>0.04160376</v>
       </c>
       <c r="D4">
-        <v>0.146094250825158</v>
+        <v>0.09929501270840067</v>
       </c>
       <c r="E4">
-        <v>0.07076926580971196</v>
+        <v>0.04809932703203577</v>
       </c>
       <c r="F4">
-        <v>0.1644563390802731</v>
+        <v>0.1117750642939108</v>
       </c>
       <c r="G4">
-        <v>0.2878283519330827</v>
+        <v>0.1956265883264443</v>
       </c>
       <c r="H4">
-        <v>0.1484096065744982</v>
+        <v>0.100868676813981</v>
       </c>
       <c r="I4">
-        <v>2.753545418148766</v>
+        <v>1.871485878081916</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.17502134326157</v>
+        <v>1.478283852378739</v>
       </c>
       <c r="C5">
-        <v>0.06601319999999999</v>
+        <v>0.0448668</v>
       </c>
       <c r="D5">
-        <v>0.1970573615781201</v>
+        <v>0.1339328078392382</v>
       </c>
       <c r="E5">
-        <v>0.1238462151669959</v>
+        <v>0.08417382230606263</v>
       </c>
       <c r="F5">
-        <v>0.1984086155355554</v>
+        <v>0.1348512065997506</v>
       </c>
       <c r="G5">
-        <v>0.236658867144979</v>
+        <v>0.160848528179521</v>
       </c>
       <c r="H5">
-        <v>0.1261481655883234</v>
+        <v>0.08573837529188384</v>
       </c>
       <c r="I5">
-        <v>3.123153768275544</v>
+        <v>2.122695392595196</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.022783945288626</v>
+        <v>1.374813563294551</v>
       </c>
       <c r="C6">
-        <v>0.06841367999999999</v>
+        <v>0.04649832000000001</v>
       </c>
       <c r="D6">
-        <v>0.2412253908973538</v>
+        <v>0.163952230285964</v>
       </c>
       <c r="E6">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F6">
-        <v>0.2122017278455137</v>
+        <v>0.144225889411498</v>
       </c>
       <c r="G6">
-        <v>0.2430550527434921</v>
+        <v>0.1651957856978861</v>
       </c>
       <c r="H6">
-        <v>0.1113072049308736</v>
+        <v>0.07565150761048575</v>
       </c>
       <c r="I6">
-        <v>3.005140900420427</v>
+        <v>2.042486286848438</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.16938292111442</v>
+        <v>1.474451619449693</v>
       </c>
       <c r="C7">
-        <v>0.07081416000000003</v>
+        <v>0.04812983999999999</v>
       </c>
       <c r="D7">
-        <v>0.2785983387828593</v>
+        <v>0.1893532800485783</v>
       </c>
       <c r="E7">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F7">
-        <v>0.2228118142377895</v>
+        <v>0.1514371838820728</v>
       </c>
       <c r="G7">
-        <v>0.230262681546466</v>
+        <v>0.1565012706611552</v>
       </c>
       <c r="H7">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I7">
-        <v>3.174490058669527</v>
+        <v>2.157586824518641</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.217309509365164</v>
+        <v>1.507025599346569</v>
       </c>
       <c r="C8">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D8">
-        <v>0.2718032573491312</v>
+        <v>0.1847349073644665</v>
       </c>
       <c r="E8">
-        <v>0.1179487763495199</v>
+        <v>0.08016554505339298</v>
       </c>
       <c r="F8">
-        <v>0.2079576932886036</v>
+        <v>0.141341371623268</v>
       </c>
       <c r="G8">
-        <v>0.1982817535539014</v>
+        <v>0.1347649830693283</v>
       </c>
       <c r="H8">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I8">
-        <v>3.130057312207394</v>
+        <v>2.127387483341919</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2.479496139207454</v>
+        <v>1.685224430547116</v>
       </c>
       <c r="C9">
-        <v>0.06001199999999998</v>
+        <v>0.04078799999999998</v>
       </c>
       <c r="D9">
-        <v>0.23782785018049</v>
+        <v>0.161643043943908</v>
       </c>
       <c r="E9">
-        <v>0.188718042159232</v>
+        <v>0.1282648720854288</v>
       </c>
       <c r="F9">
-        <v>0.1846155032255969</v>
+        <v>0.1254765237880032</v>
       </c>
       <c r="G9">
-        <v>0.2110741247509275</v>
+        <v>0.1434594981060592</v>
       </c>
       <c r="H9">
-        <v>0.08162528361597397</v>
+        <v>0.05547777224768956</v>
       </c>
       <c r="I9">
-        <v>3.443368943139674</v>
+        <v>2.340334140718205</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.692346575262215</v>
+        <v>1.829891223618529</v>
       </c>
       <c r="C10">
-        <v>0.07321464000000003</v>
+        <v>0.04976136000000003</v>
       </c>
       <c r="D10">
-        <v>0.2174426058793051</v>
+        <v>0.147787925891573</v>
       </c>
       <c r="E10">
-        <v>0.3538463290485596</v>
+        <v>0.240496635160179</v>
       </c>
       <c r="F10">
-        <v>0.1771884427510041</v>
+        <v>0.1204286176586008</v>
       </c>
       <c r="G10">
-        <v>0.1599046399628237</v>
+        <v>0.1086814379591357</v>
       </c>
       <c r="H10">
-        <v>0.04452288197234942</v>
+        <v>0.03026060304419431</v>
       </c>
       <c r="I10">
-        <v>3.718466114876257</v>
+        <v>2.527307803332211</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.861499239676592</v>
+        <v>1.944858211489851</v>
       </c>
       <c r="C11">
-        <v>0.04560912000000001</v>
+        <v>0.03099888000000001</v>
       </c>
       <c r="D11">
-        <v>0.1868647394275278</v>
+        <v>0.1270052488130706</v>
       </c>
       <c r="E11">
-        <v>0.377436084318464</v>
+        <v>0.2565297441708576</v>
       </c>
       <c r="F11">
-        <v>0.09867380344816386</v>
+        <v>0.06706503857634653</v>
       </c>
       <c r="G11">
-        <v>0.03198092799256474</v>
+        <v>0.02173628759182716</v>
       </c>
       <c r="H11">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I11">
-        <v>3.654007277164387</v>
+        <v>2.483497447526847</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.084806588907234</v>
+        <v>1.416968125514035</v>
       </c>
       <c r="C12">
-        <v>0.03840768000000001</v>
+        <v>0.02610431999999999</v>
       </c>
       <c r="D12">
-        <v>0.1902622801443919</v>
+        <v>0.1293144351551264</v>
       </c>
       <c r="E12">
-        <v>0.2300001138815638</v>
+        <v>0.1563228128541163</v>
       </c>
       <c r="F12">
-        <v>0.08806371705588822</v>
+        <v>0.05985374410577165</v>
       </c>
       <c r="G12">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="H12">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I12">
-        <v>2.716739382230171</v>
+        <v>1.846470138012467</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.818391142454584</v>
+        <v>1.235895119616703</v>
       </c>
       <c r="C13">
-        <v>0.02640528</v>
+        <v>0.01794672</v>
       </c>
       <c r="D13">
-        <v>0.1121188436565167</v>
+        <v>0.07620314928784241</v>
       </c>
       <c r="E13">
-        <v>0.3066668185087519</v>
+        <v>0.2084304171388218</v>
       </c>
       <c r="F13">
-        <v>0.05517244923983358</v>
+        <v>0.03749873124698945</v>
       </c>
       <c r="G13">
-        <v>0.115131340773233</v>
+        <v>0.07825063533057762</v>
       </c>
       <c r="H13">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I13">
-        <v>2.470988276276544</v>
+        <v>1.679441941824429</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.440616858595802</v>
+        <v>0.9791355133707528</v>
       </c>
       <c r="C14">
-        <v>0.02280456</v>
+        <v>0.01549944</v>
       </c>
       <c r="D14">
-        <v>0.1155163843733807</v>
+        <v>0.07851233562989827</v>
       </c>
       <c r="E14">
-        <v>0.1946154809767078</v>
+        <v>0.1322731493380984</v>
       </c>
       <c r="F14">
-        <v>0.03713530237296491</v>
+        <v>0.02523953064701216</v>
       </c>
       <c r="G14">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H14">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I14">
-        <v>1.937337586341661</v>
+        <v>1.316738743446373</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.017735197559853</v>
+        <v>0.691718043692449</v>
       </c>
       <c r="C15">
-        <v>0.03240648</v>
+        <v>0.02202552</v>
       </c>
       <c r="D15">
-        <v>0.07474589577101108</v>
+        <v>0.05080209952522823</v>
       </c>
       <c r="E15">
-        <v>0.112051337532044</v>
+        <v>0.07615726780072332</v>
       </c>
       <c r="F15">
-        <v>0.03183025917682707</v>
+        <v>0.0216338834117247</v>
       </c>
       <c r="G15">
-        <v>0.07675422718215541</v>
+        <v>0.05216709022038515</v>
       </c>
       <c r="I15">
-        <v>1.34552339722189</v>
+        <v>0.9145039046505103</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.6258648583332053</v>
+        <v>0.4253778551238885</v>
       </c>
       <c r="C16">
-        <v>0.02640528</v>
+        <v>0.01794672</v>
       </c>
       <c r="D16">
-        <v>0.05096311075296212</v>
+        <v>0.03463779513083746</v>
       </c>
       <c r="E16">
-        <v>0.05897438817475995</v>
+        <v>0.04008277252669649</v>
       </c>
       <c r="F16">
-        <v>0.02440319870223408</v>
+        <v>0.01658597728232226</v>
       </c>
       <c r="G16">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="I16">
-        <v>0.8569688775468038</v>
+        <v>0.5824509527657644</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.4863139101913426</v>
+        <v>0.3305300901300487</v>
       </c>
       <c r="C17">
-        <v>0.03720744</v>
+        <v>0.02528856000000001</v>
       </c>
       <c r="D17">
-        <v>0.0169877035843207</v>
+        <v>0.01154593171027916</v>
       </c>
       <c r="E17">
-        <v>0.011794877634952</v>
+        <v>0.0080165545053393</v>
       </c>
       <c r="F17">
-        <v>0.0137931123099584</v>
+        <v>0.009374682811747363</v>
       </c>
       <c r="G17">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="I17">
-        <v>0.649247456501242</v>
+        <v>0.4412701668961651</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.3171612457769623</v>
+        <v>0.2155631022587272</v>
       </c>
       <c r="C18">
-        <v>0.03360672000000001</v>
+        <v>0.02284128000000001</v>
       </c>
       <c r="D18">
-        <v>0.03057786645177726</v>
+        <v>0.02078267707850249</v>
       </c>
       <c r="E18">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F18">
-        <v>0.02546420734146167</v>
+        <v>0.01730710672937976</v>
       </c>
       <c r="G18">
-        <v>0.05116948478810361</v>
+        <v>0.03477806014692339</v>
       </c>
       <c r="I18">
-        <v>0.4815692796282088</v>
+        <v>0.3273053352242115</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.188887141929391</v>
+        <v>0.1283798031229753</v>
       </c>
       <c r="C19">
-        <v>0.03000599999999999</v>
+        <v>0.02039399999999999</v>
       </c>
       <c r="D19">
-        <v>0.04077048860236971</v>
+        <v>0.02771023610466999</v>
       </c>
       <c r="E19">
-        <v>0.005897438817476</v>
+        <v>0.00400827725266965</v>
       </c>
       <c r="F19">
-        <v>0.01167109503150326</v>
+        <v>0.007932423917632384</v>
       </c>
       <c r="G19">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="H19">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I19">
-        <v>0.393387799884185</v>
+        <v>0.2673715520508587</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.228356096959413</v>
+        <v>0.1552054336262837</v>
       </c>
       <c r="C20">
-        <v>0.02280456</v>
+        <v>0.01549944</v>
       </c>
       <c r="D20">
-        <v>0.05096311075296212</v>
+        <v>0.03463779513083746</v>
       </c>
       <c r="E20">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F20">
-        <v>0.02334219006300651</v>
+        <v>0.01586484783526477</v>
       </c>
       <c r="G20">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H20">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I20">
-        <v>0.4401253529357158</v>
+        <v>0.2991373874482099</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3918703392266468</v>
+        <v>0.2663401885685607</v>
       </c>
       <c r="C21">
-        <v>0.01080216</v>
+        <v>0.007341840000000001</v>
       </c>
       <c r="D21">
-        <v>0.07134835505414687</v>
+        <v>0.04849291318317246</v>
       </c>
       <c r="E21">
-        <v>0.04128207172233199</v>
+        <v>0.02805794076868754</v>
       </c>
       <c r="F21">
-        <v>0.04137933692987518</v>
+        <v>0.0281240484352421</v>
       </c>
       <c r="G21">
-        <v>0.1471122687657977</v>
+        <v>0.09998692292240488</v>
       </c>
       <c r="I21">
-        <v>0.7037945316987986</v>
+        <v>0.4783438538780677</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.7879694950636527</v>
+        <v>0.5355545518339044</v>
       </c>
       <c r="C22">
-        <v>0.009601920000000003</v>
+        <v>0.006526079999999998</v>
       </c>
       <c r="D22">
-        <v>0.1053237622227884</v>
+        <v>0.07158477660373075</v>
       </c>
       <c r="E22">
-        <v>0.1710257257068039</v>
+        <v>0.1162400403274198</v>
       </c>
       <c r="F22">
-        <v>0.1167109503150326</v>
+        <v>0.0793242391763239</v>
       </c>
       <c r="G22">
-        <v>0.2686397951375439</v>
+        <v>0.1825848157713481</v>
       </c>
       <c r="H22">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I22">
-        <v>1.474112609103271</v>
+        <v>1.001901371394125</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.497001080067262</v>
+        <v>1.017457842661193</v>
       </c>
       <c r="C23">
-        <v>0.02160432</v>
+        <v>0.01468368</v>
       </c>
       <c r="D23">
-        <v>0.1800696579937991</v>
+        <v>0.122386876128959</v>
       </c>
       <c r="E23">
-        <v>0.4953848606679836</v>
+        <v>0.3366952892242505</v>
       </c>
       <c r="F23">
-        <v>0.1718833995548662</v>
+        <v>0.1168229704233133</v>
       </c>
       <c r="G23">
-        <v>0.3773749503122643</v>
+        <v>0.2564881935835601</v>
       </c>
       <c r="H23">
-        <v>0.08904576394469885</v>
+        <v>0.06052120608838862</v>
       </c>
       <c r="I23">
-        <v>2.832364032540875</v>
+        <v>1.925056058109665</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.153877260209771</v>
+        <v>1.463912978894823</v>
       </c>
       <c r="C24">
-        <v>0.03240648</v>
+        <v>0.02202552</v>
       </c>
       <c r="D24">
-        <v>0.1902622801443919</v>
+        <v>0.1293144351551264</v>
       </c>
       <c r="E24">
-        <v>0.5366669323903159</v>
+        <v>0.364753229992938</v>
       </c>
       <c r="F24">
-        <v>0.1814324773079144</v>
+        <v>0.1233131354468308</v>
       </c>
       <c r="G24">
-        <v>0.4797139198884705</v>
+        <v>0.3260443138774075</v>
       </c>
       <c r="H24">
-        <v>0.1335686459170483</v>
+        <v>0.09078180913258291</v>
       </c>
       <c r="I24">
-        <v>3.707927995857912</v>
+        <v>2.520145422499709</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2.341354796602375</v>
+        <v>1.591334723785539</v>
       </c>
       <c r="C25">
-        <v>0.05521104</v>
+        <v>0.03752496000000001</v>
       </c>
       <c r="D25">
-        <v>0.23782785018049</v>
+        <v>0.161643043943908</v>
       </c>
       <c r="E25">
-        <v>0.2535898691514679</v>
+        <v>0.172355921864795</v>
       </c>
       <c r="F25">
-        <v>0.1846155032255969</v>
+        <v>0.1254765237880032</v>
       </c>
       <c r="G25">
-        <v>0.3262054655241604</v>
+        <v>0.2217101334366368</v>
       </c>
       <c r="H25">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I25">
-        <v>3.458168367313889</v>
+        <v>2.350392777544474</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.19475582077658</v>
+        <v>1.491696667630393</v>
       </c>
       <c r="C26">
-        <v>0.05881176000000002</v>
+        <v>0.03997223999999999</v>
       </c>
       <c r="D26">
-        <v>0.2310327687467615</v>
+        <v>0.1570246712597965</v>
       </c>
       <c r="E26">
-        <v>0.2064103586116599</v>
+        <v>0.1402897038434377</v>
       </c>
       <c r="F26">
-        <v>0.1952255896178727</v>
+        <v>0.1326878182585781</v>
       </c>
       <c r="G26">
-        <v>0.3581863935167252</v>
+        <v>0.2434464210284639</v>
       </c>
       <c r="H26">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I26">
-        <v>3.303786533899399</v>
+        <v>2.245464992746261</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.067891322465794</v>
+        <v>1.405471426726902</v>
       </c>
       <c r="C27">
-        <v>0.07561512000000001</v>
+        <v>0.05139287999999998</v>
       </c>
       <c r="D27">
-        <v>0.2819958794997235</v>
+        <v>0.1916624663906339</v>
       </c>
       <c r="E27">
-        <v>0.08256414344466398</v>
+        <v>0.05611588153737509</v>
       </c>
       <c r="F27">
-        <v>0.2143237451239689</v>
+        <v>0.1456681483056129</v>
       </c>
       <c r="G27">
-        <v>0.313413094327135</v>
+        <v>0.2130156183999061</v>
       </c>
       <c r="H27">
-        <v>0.155830086903223</v>
+        <v>0.1059121106546801</v>
       </c>
       <c r="I27">
-        <v>3.191633391764509</v>
+        <v>2.16923853201511</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.096083433201525</v>
+        <v>1.424632591372121</v>
       </c>
       <c r="C28">
-        <v>0.06961392000000001</v>
+        <v>0.04731407999999999</v>
       </c>
       <c r="D28">
-        <v>0.220840146596169</v>
+        <v>0.150097112233629</v>
       </c>
       <c r="E28">
-        <v>0.08256414344466398</v>
+        <v>0.05611588153737509</v>
       </c>
       <c r="F28">
-        <v>0.1920425637001899</v>
+        <v>0.1305244299174057</v>
       </c>
       <c r="G28">
-        <v>0.3326016511226734</v>
+        <v>0.2260573909550024</v>
       </c>
       <c r="H28">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I28">
-        <v>3.090212102338645</v>
+        <v>2.100306125944621</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.187707793092646</v>
+        <v>1.486906376469089</v>
       </c>
       <c r="C29">
-        <v>0.07441488</v>
+        <v>0.05057712000000001</v>
       </c>
       <c r="D29">
-        <v>0.1868647394275278</v>
+        <v>0.1270052488130706</v>
       </c>
       <c r="E29">
-        <v>0.0884615822621399</v>
+        <v>0.06012415879004475</v>
       </c>
       <c r="F29">
-        <v>0.1920425637001899</v>
+        <v>0.1305244299174057</v>
       </c>
       <c r="G29">
-        <v>0.2686397951375439</v>
+        <v>0.1825848157713481</v>
       </c>
       <c r="H29">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I29">
-        <v>3.057495196249847</v>
+        <v>2.07806962048655</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.270874519763052</v>
+        <v>1.543431812172486</v>
       </c>
       <c r="C30">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D30">
-        <v>0.1562868729757504</v>
+        <v>0.1062225717345683</v>
       </c>
       <c r="E30">
-        <v>0.1002564598970919</v>
+        <v>0.06814071329538403</v>
       </c>
       <c r="F30">
-        <v>0.2387269438262031</v>
+        <v>0.1622541255879352</v>
       </c>
       <c r="G30">
-        <v>0.3006207231301087</v>
+        <v>0.2043211033631751</v>
       </c>
       <c r="H30">
-        <v>0.08904576394469885</v>
+        <v>0.06052120608838862</v>
       </c>
       <c r="I30">
-        <v>3.220624243536904</v>
+        <v>2.188942572241937</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.041108817266851</v>
+        <v>1.387268320313941</v>
       </c>
       <c r="C31">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D31">
-        <v>0.2072499837287126</v>
+        <v>0.1408603668654057</v>
       </c>
       <c r="E31">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F31">
-        <v>0.1867375205040521</v>
+        <v>0.1269187826821181</v>
       </c>
       <c r="G31">
-        <v>0.2110741247509275</v>
+        <v>0.1434594981060592</v>
       </c>
       <c r="H31">
-        <v>0.04452288197234942</v>
+        <v>0.03026060304419431</v>
       </c>
       <c r="I31">
-        <v>2.86166018693746</v>
+        <v>1.944967601559772</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.273693730836625</v>
+        <v>1.54534792863701</v>
       </c>
       <c r="C32">
-        <v>0.05761152000000002</v>
+        <v>0.03915648</v>
       </c>
       <c r="D32">
-        <v>0.3125737459515007</v>
+        <v>0.2124451434691366</v>
       </c>
       <c r="E32">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F32">
-        <v>0.2143237451239689</v>
+        <v>0.1456681483056129</v>
       </c>
       <c r="G32">
-        <v>0.1982817535539014</v>
+        <v>0.1347649830693283</v>
       </c>
       <c r="H32">
-        <v>0.1038867246021487</v>
+        <v>0.07060807376978673</v>
       </c>
       <c r="I32">
-        <v>3.266525118782712</v>
+        <v>2.220139747798929</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2.284970575130916</v>
+        <v>1.553012394495099</v>
       </c>
       <c r="C33">
-        <v>0.06001199999999998</v>
+        <v>0.04078799999999998</v>
       </c>
       <c r="D33">
-        <v>0.2650081759154031</v>
+        <v>0.1801165346803549</v>
       </c>
       <c r="E33">
-        <v>0.1533334092543759</v>
+        <v>0.1042152085694109</v>
       </c>
       <c r="F33">
-        <v>0.1984086155355554</v>
+        <v>0.1348512065997506</v>
       </c>
       <c r="G33">
-        <v>0.2494512383420051</v>
+        <v>0.1695430432162517</v>
       </c>
       <c r="H33">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I33">
-        <v>3.30765025845168</v>
+        <v>2.248091027489954</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.727586713681876</v>
+        <v>1.853842679425055</v>
       </c>
       <c r="C34">
-        <v>0.05161032000000002</v>
+        <v>0.03507767999999999</v>
       </c>
       <c r="D34">
-        <v>0.2310327687467615</v>
+        <v>0.1570246712597965</v>
       </c>
       <c r="E34">
-        <v>0.3125642573262278</v>
+        <v>0.2124386943914913</v>
       </c>
       <c r="F34">
-        <v>0.1655173477195007</v>
+        <v>0.1124961937409684</v>
       </c>
       <c r="G34">
-        <v>0.140716083167285</v>
+        <v>0.09563966540403944</v>
       </c>
       <c r="H34">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I34">
-        <v>3.703232293928901</v>
+        <v>2.51695392262834</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.847403184308732</v>
+        <v>1.93527762916724</v>
       </c>
       <c r="C35">
-        <v>0.03960791999999999</v>
+        <v>0.02692008</v>
       </c>
       <c r="D35">
-        <v>0.1902622801443919</v>
+        <v>0.1293144351551264</v>
       </c>
       <c r="E35">
-        <v>0.3479488902310837</v>
+        <v>0.2364883579075093</v>
       </c>
       <c r="F35">
-        <v>0.1283820453465357</v>
+        <v>0.08725666309395626</v>
       </c>
       <c r="G35">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H35">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I35">
-        <v>3.702514761039723</v>
+        <v>2.516466241306541</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.142600415915478</v>
+        <v>1.456248513036734</v>
       </c>
       <c r="C36">
-        <v>0.03240648</v>
+        <v>0.02202552</v>
       </c>
       <c r="D36">
-        <v>0.1936598208612559</v>
+        <v>0.1316236214971823</v>
       </c>
       <c r="E36">
-        <v>0.3656412066835118</v>
+        <v>0.2485131896655181</v>
       </c>
       <c r="F36">
-        <v>0.07957564794206765</v>
+        <v>0.05408470852931176</v>
       </c>
       <c r="G36">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H36">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I36">
-        <v>2.934136385826606</v>
+        <v>1.994227069670992</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.988953412405752</v>
+        <v>1.351820165720284</v>
       </c>
       <c r="C37">
-        <v>0.03000599999999999</v>
+        <v>0.02039399999999999</v>
       </c>
       <c r="D37">
-        <v>0.1121188436565167</v>
+        <v>0.07620314928784241</v>
       </c>
       <c r="E37">
-        <v>0.3597437678660359</v>
+        <v>0.2445049124128484</v>
       </c>
       <c r="F37">
-        <v>0.06896556154979198</v>
+        <v>0.04687341405873684</v>
       </c>
       <c r="G37">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="H37">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I37">
-        <v>2.683363701310267</v>
+        <v>1.823785886973322</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.581577412274453</v>
+        <v>1.074941336596853</v>
       </c>
       <c r="C38">
-        <v>0.01800360000000001</v>
+        <v>0.0122364</v>
       </c>
       <c r="D38">
-        <v>0.09173359935533178</v>
+        <v>0.06234803123550743</v>
       </c>
       <c r="E38">
-        <v>0.2476924303339918</v>
+        <v>0.1683476446121253</v>
       </c>
       <c r="F38">
-        <v>0.04456236284755791</v>
+        <v>0.03028743677641456</v>
       </c>
       <c r="G38">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="H38">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I38">
-        <v>2.107145520643505</v>
+        <v>1.432151094714511</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.131913246039558</v>
+        <v>0.7693207605055912</v>
       </c>
       <c r="C39">
-        <v>0.02520504000000001</v>
+        <v>0.01713096</v>
       </c>
       <c r="D39">
-        <v>0.04416802931923383</v>
+        <v>0.03001942244672582</v>
       </c>
       <c r="E39">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F39">
-        <v>0.03183025917682707</v>
+        <v>0.0216338834117247</v>
       </c>
       <c r="G39">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="H39">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I39">
-        <v>1.425493770221492</v>
+        <v>0.9688568936178469</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.6667434189000149</v>
+        <v>0.4531615438594579</v>
       </c>
       <c r="C40">
-        <v>0.02880576000000001</v>
+        <v>0.01957824</v>
       </c>
       <c r="D40">
-        <v>0.04756557003609799</v>
+        <v>0.03232860878878161</v>
       </c>
       <c r="E40">
-        <v>0.047179510539808</v>
+        <v>0.0320662180213572</v>
       </c>
       <c r="F40">
-        <v>0.02546420734146167</v>
+        <v>0.01730710672937976</v>
       </c>
       <c r="G40">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="I40">
-        <v>0.9053050651965638</v>
+        <v>0.6153033226560924</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.5145060209270722</v>
+        <v>0.3496912547752689</v>
       </c>
       <c r="C41">
-        <v>0.03000599999999999</v>
+        <v>0.02039399999999999</v>
       </c>
       <c r="D41">
-        <v>0.0169877035843207</v>
+        <v>0.01154593171027916</v>
       </c>
       <c r="E41">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F41">
-        <v>0.02015916414532382</v>
+        <v>0.01370145949409231</v>
       </c>
       <c r="G41">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="I41">
-        <v>0.7139837991013409</v>
+        <v>0.4852691328025313</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.3340765122184003</v>
+        <v>0.2270598010458592</v>
       </c>
       <c r="C42">
-        <v>0.03360672000000001</v>
+        <v>0.02284128000000001</v>
       </c>
       <c r="D42">
-        <v>0.02718032573491313</v>
+        <v>0.01847349073644663</v>
       </c>
       <c r="E42">
-        <v>0.02948719408737998</v>
+        <v>0.02004138626334824</v>
       </c>
       <c r="F42">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G42">
-        <v>0.09594278397769425</v>
+        <v>0.06520886277548152</v>
       </c>
       <c r="I42">
-        <v>0.541513708802939</v>
+        <v>0.3680474097622853</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.233994519106559</v>
+        <v>0.1590376665553276</v>
       </c>
       <c r="C43">
-        <v>0.03720744</v>
+        <v>0.02528856000000001</v>
       </c>
       <c r="D43">
-        <v>0.05096311075296212</v>
+        <v>0.03463779513083746</v>
       </c>
       <c r="E43">
-        <v>0.011794877634952</v>
+        <v>0.0080165545053393</v>
       </c>
       <c r="F43">
-        <v>0.0169761382276411</v>
+        <v>0.01153807115291984</v>
       </c>
       <c r="G43">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="H43">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I43">
-        <v>0.4223184220359686</v>
+        <v>0.2870346563687777</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.259367418768716</v>
+        <v>0.1762827147360258</v>
       </c>
       <c r="C44">
-        <v>0.03720744</v>
+        <v>0.02528856000000001</v>
       </c>
       <c r="D44">
-        <v>0.03397540716864141</v>
+        <v>0.02309186342055831</v>
       </c>
       <c r="E44">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F44">
-        <v>0.02334219006300651</v>
+        <v>0.01586484783526477</v>
       </c>
       <c r="G44">
-        <v>0.03837711359107771</v>
+        <v>0.02608354511019257</v>
       </c>
       <c r="I44">
-        <v>0.4158593248613456</v>
+        <v>0.2826446401127201</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.3495821731230511</v>
+        <v>0.2375984416007307</v>
       </c>
       <c r="C45">
-        <v>0.0120024</v>
+        <v>0.008157599999999996</v>
       </c>
       <c r="D45">
-        <v>0.06455327362041867</v>
+        <v>0.04387454049906082</v>
       </c>
       <c r="E45">
-        <v>0.03538463290485598</v>
+        <v>0.02404966351601789</v>
       </c>
       <c r="F45">
-        <v>0.03925731965142001</v>
+        <v>0.02668178954112714</v>
       </c>
       <c r="G45">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H45">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I45">
-        <v>0.6136121333953137</v>
+        <v>0.4170501182584833</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.8119327891890238</v>
+        <v>0.5518415417823417</v>
       </c>
       <c r="C46">
-        <v>0.009601920000000003</v>
+        <v>0.006526079999999998</v>
       </c>
       <c r="D46">
-        <v>0.1019262215059242</v>
+        <v>0.06927559026167493</v>
       </c>
       <c r="E46">
-        <v>0.1769231645242798</v>
+        <v>0.1202483175800895</v>
       </c>
       <c r="F46">
-        <v>0.1209549848719428</v>
+        <v>0.08220875696455389</v>
       </c>
       <c r="G46">
-        <v>0.28143216633457</v>
+        <v>0.1912793308080789</v>
       </c>
       <c r="H46">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I46">
-        <v>1.517612207083191</v>
+        <v>1.031466485078137</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.543518062781217</v>
+        <v>1.049073764325805</v>
       </c>
       <c r="C47">
-        <v>0.02040408</v>
+        <v>0.01386792</v>
       </c>
       <c r="D47">
-        <v>0.1732745765600711</v>
+        <v>0.1177685034448473</v>
       </c>
       <c r="E47">
-        <v>0.5130771771204115</v>
+        <v>0.3487201209822596</v>
       </c>
       <c r="F47">
-        <v>0.1782494513902317</v>
+        <v>0.1211497471056582</v>
       </c>
       <c r="G47">
-        <v>0.3965635071078027</v>
+        <v>0.2695299661386566</v>
       </c>
       <c r="H47">
-        <v>0.08162528361597397</v>
+        <v>0.05547777224768956</v>
       </c>
       <c r="I47">
-        <v>2.906712138575708</v>
+        <v>1.975587794244916</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.220128720438736</v>
+        <v>1.508941715811089</v>
       </c>
       <c r="C48">
-        <v>0.03120624</v>
+        <v>0.02120976</v>
       </c>
       <c r="D48">
-        <v>0.1834671987106636</v>
+        <v>0.1246960624710149</v>
       </c>
       <c r="E48">
-        <v>0.5602566876602196</v>
+        <v>0.3807863390036164</v>
       </c>
       <c r="F48">
-        <v>0.1877985291432797</v>
+        <v>0.1276399121291756</v>
       </c>
       <c r="G48">
-        <v>0.5052986622825227</v>
+        <v>0.3434333439508694</v>
       </c>
       <c r="H48">
-        <v>0.1261481655883234</v>
+        <v>0.08573837529188384</v>
       </c>
       <c r="I48">
-        <v>3.814304203823745</v>
+        <v>2.592445508657649</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2.414654284515276</v>
+        <v>1.64115375186311</v>
       </c>
       <c r="C49">
-        <v>0.05401080000000002</v>
+        <v>0.0367092</v>
       </c>
       <c r="D49">
-        <v>0.2310327687467615</v>
+        <v>0.1570246712597965</v>
       </c>
       <c r="E49">
-        <v>0.2653847467864198</v>
+        <v>0.1803724763701342</v>
       </c>
       <c r="F49">
-        <v>0.1920425637001899</v>
+        <v>0.1305244299174057</v>
       </c>
       <c r="G49">
-        <v>0.3453940223196995</v>
+        <v>0.2347519059917332</v>
       </c>
       <c r="H49">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I49">
-        <v>3.554462548369421</v>
+        <v>2.415840472287073</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.446667930714126</v>
+        <v>2.128504360547613</v>
       </c>
       <c r="C2">
-        <v>0.04160376</v>
+        <v>0.06121224000000001</v>
       </c>
       <c r="D2">
-        <v>0.161643043943908</v>
+        <v>0.23782785018049</v>
       </c>
       <c r="E2">
-        <v>0.1362814265907681</v>
+        <v>0.2005129197941839</v>
       </c>
       <c r="F2">
-        <v>0.1276399121291756</v>
+        <v>0.1877985291432797</v>
       </c>
       <c r="G2">
-        <v>0.2304046484733679</v>
+        <v>0.3389978367211864</v>
       </c>
       <c r="H2">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I2">
-        <v>2.189631626417638</v>
+        <v>3.221638059345278</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.363316864507418</v>
+        <v>2.00586867884719</v>
       </c>
       <c r="C3">
-        <v>0.0530244</v>
+        <v>0.07801560000000002</v>
       </c>
       <c r="D3">
-        <v>0.1985900254168013</v>
+        <v>0.292188501650316</v>
       </c>
       <c r="E3">
-        <v>0.05210760428470545</v>
+        <v>0.07666670462718797</v>
       </c>
       <c r="F3">
-        <v>0.1406202421762104</v>
+        <v>0.206896684649376</v>
       </c>
       <c r="G3">
-        <v>0.2043211033631751</v>
+        <v>0.3006207231301087</v>
       </c>
       <c r="H3">
-        <v>0.1159989783360782</v>
+        <v>0.1706710475606729</v>
       </c>
       <c r="I3">
-        <v>2.127979218084389</v>
+        <v>3.130927940464852</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.274217448907144</v>
+        <v>1.874775363926042</v>
       </c>
       <c r="C4">
-        <v>0.04160376</v>
+        <v>0.06121224000000001</v>
       </c>
       <c r="D4">
-        <v>0.09929501270840067</v>
+        <v>0.146094250825158</v>
       </c>
       <c r="E4">
-        <v>0.04809932703203577</v>
+        <v>0.07076926580971196</v>
       </c>
       <c r="F4">
-        <v>0.1117750642939108</v>
+        <v>0.1644563390802731</v>
       </c>
       <c r="G4">
-        <v>0.1956265883264443</v>
+        <v>0.2878283519330827</v>
       </c>
       <c r="H4">
-        <v>0.100868676813981</v>
+        <v>0.1484096065744982</v>
       </c>
       <c r="I4">
-        <v>1.871485878081916</v>
+        <v>2.753545418148766</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.478283852378739</v>
+        <v>2.17502134326157</v>
       </c>
       <c r="C5">
-        <v>0.0448668</v>
+        <v>0.06601319999999999</v>
       </c>
       <c r="D5">
-        <v>0.1339328078392382</v>
+        <v>0.1970573615781201</v>
       </c>
       <c r="E5">
-        <v>0.08417382230606263</v>
+        <v>0.1238462151669959</v>
       </c>
       <c r="F5">
-        <v>0.1348512065997506</v>
+        <v>0.1984086155355554</v>
       </c>
       <c r="G5">
-        <v>0.160848528179521</v>
+        <v>0.236658867144979</v>
       </c>
       <c r="H5">
-        <v>0.08573837529188384</v>
+        <v>0.1261481655883234</v>
       </c>
       <c r="I5">
-        <v>2.122695392595196</v>
+        <v>3.123153768275544</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.374813563294551</v>
+        <v>2.022783945288626</v>
       </c>
       <c r="C6">
-        <v>0.04649832000000001</v>
+        <v>0.06841367999999999</v>
       </c>
       <c r="D6">
-        <v>0.163952230285964</v>
+        <v>0.2412253908973538</v>
       </c>
       <c r="E6">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F6">
-        <v>0.144225889411498</v>
+        <v>0.2122017278455137</v>
       </c>
       <c r="G6">
-        <v>0.1651957856978861</v>
+        <v>0.2430550527434921</v>
       </c>
       <c r="H6">
-        <v>0.07565150761048575</v>
+        <v>0.1113072049308736</v>
       </c>
       <c r="I6">
-        <v>2.042486286848438</v>
+        <v>3.005140900420427</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.474451619449693</v>
+        <v>2.16938292111442</v>
       </c>
       <c r="C7">
-        <v>0.04812983999999999</v>
+        <v>0.07081416000000003</v>
       </c>
       <c r="D7">
-        <v>0.1893532800485783</v>
+        <v>0.2785983387828593</v>
       </c>
       <c r="E7">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F7">
-        <v>0.1514371838820728</v>
+        <v>0.2228118142377895</v>
       </c>
       <c r="G7">
-        <v>0.1565012706611552</v>
+        <v>0.230262681546466</v>
       </c>
       <c r="H7">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I7">
-        <v>2.157586824518641</v>
+        <v>3.174490058669527</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.507025599346569</v>
+        <v>2.217309509365164</v>
       </c>
       <c r="C8">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D8">
-        <v>0.1847349073644665</v>
+        <v>0.2718032573491312</v>
       </c>
       <c r="E8">
-        <v>0.08016554505339298</v>
+        <v>0.1179487763495199</v>
       </c>
       <c r="F8">
-        <v>0.141341371623268</v>
+        <v>0.2079576932886036</v>
       </c>
       <c r="G8">
-        <v>0.1347649830693283</v>
+        <v>0.1982817535539014</v>
       </c>
       <c r="H8">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I8">
-        <v>2.127387483341919</v>
+        <v>3.130057312207394</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.685224430547116</v>
+        <v>2.479496139207454</v>
       </c>
       <c r="C9">
-        <v>0.04078799999999998</v>
+        <v>0.06001199999999998</v>
       </c>
       <c r="D9">
-        <v>0.161643043943908</v>
+        <v>0.23782785018049</v>
       </c>
       <c r="E9">
-        <v>0.1282648720854288</v>
+        <v>0.188718042159232</v>
       </c>
       <c r="F9">
-        <v>0.1254765237880032</v>
+        <v>0.1846155032255969</v>
       </c>
       <c r="G9">
-        <v>0.1434594981060592</v>
+        <v>0.2110741247509275</v>
       </c>
       <c r="H9">
-        <v>0.05547777224768956</v>
+        <v>0.08162528361597397</v>
       </c>
       <c r="I9">
-        <v>2.340334140718205</v>
+        <v>3.443368943139674</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.829891223618529</v>
+        <v>2.692346575262215</v>
       </c>
       <c r="C10">
-        <v>0.04976136000000003</v>
+        <v>0.07321464000000003</v>
       </c>
       <c r="D10">
-        <v>0.147787925891573</v>
+        <v>0.2174426058793051</v>
       </c>
       <c r="E10">
-        <v>0.240496635160179</v>
+        <v>0.3538463290485596</v>
       </c>
       <c r="F10">
-        <v>0.1204286176586008</v>
+        <v>0.1771884427510041</v>
       </c>
       <c r="G10">
-        <v>0.1086814379591357</v>
+        <v>0.1599046399628237</v>
       </c>
       <c r="H10">
-        <v>0.03026060304419431</v>
+        <v>0.04452288197234942</v>
       </c>
       <c r="I10">
-        <v>2.527307803332211</v>
+        <v>3.718466114876257</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.944858211489851</v>
+        <v>2.861499239676592</v>
       </c>
       <c r="C11">
-        <v>0.03099888000000001</v>
+        <v>0.04560912000000001</v>
       </c>
       <c r="D11">
-        <v>0.1270052488130706</v>
+        <v>0.1868647394275278</v>
       </c>
       <c r="E11">
-        <v>0.2565297441708576</v>
+        <v>0.377436084318464</v>
       </c>
       <c r="F11">
-        <v>0.06706503857634653</v>
+        <v>0.09867380344816386</v>
       </c>
       <c r="G11">
-        <v>0.02173628759182716</v>
+        <v>0.03198092799256474</v>
       </c>
       <c r="H11">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I11">
-        <v>2.483497447526847</v>
+        <v>3.654007277164387</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.416968125514035</v>
+        <v>2.084806588907234</v>
       </c>
       <c r="C12">
-        <v>0.02610431999999999</v>
+        <v>0.03840768000000001</v>
       </c>
       <c r="D12">
-        <v>0.1293144351551264</v>
+        <v>0.1902622801443919</v>
       </c>
       <c r="E12">
-        <v>0.1563228128541163</v>
+        <v>0.2300001138815638</v>
       </c>
       <c r="F12">
-        <v>0.05985374410577165</v>
+        <v>0.08806371705588822</v>
       </c>
       <c r="G12">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="H12">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I12">
-        <v>1.846470138012467</v>
+        <v>2.716739382230171</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.235895119616703</v>
+        <v>1.818391142454584</v>
       </c>
       <c r="C13">
-        <v>0.01794672</v>
+        <v>0.02640528</v>
       </c>
       <c r="D13">
-        <v>0.07620314928784241</v>
+        <v>0.1121188436565167</v>
       </c>
       <c r="E13">
-        <v>0.2084304171388218</v>
+        <v>0.3066668185087519</v>
       </c>
       <c r="F13">
-        <v>0.03749873124698945</v>
+        <v>0.05517244923983358</v>
       </c>
       <c r="G13">
-        <v>0.07825063533057762</v>
+        <v>0.115131340773233</v>
       </c>
       <c r="H13">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I13">
-        <v>1.679441941824429</v>
+        <v>2.470988276276544</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.9791355133707528</v>
+        <v>1.440616858595802</v>
       </c>
       <c r="C14">
-        <v>0.01549944</v>
+        <v>0.02280456</v>
       </c>
       <c r="D14">
-        <v>0.07851233562989827</v>
+        <v>0.1155163843733807</v>
       </c>
       <c r="E14">
-        <v>0.1322731493380984</v>
+        <v>0.1946154809767078</v>
       </c>
       <c r="F14">
-        <v>0.02523953064701216</v>
+        <v>0.03713530237296491</v>
       </c>
       <c r="G14">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H14">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I14">
-        <v>1.316738743446373</v>
+        <v>1.937337586341661</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.691718043692449</v>
+        <v>1.017735197559853</v>
       </c>
       <c r="C15">
-        <v>0.02202552</v>
+        <v>0.03240648</v>
       </c>
       <c r="D15">
-        <v>0.05080209952522823</v>
+        <v>0.07474589577101108</v>
       </c>
       <c r="E15">
-        <v>0.07615726780072332</v>
+        <v>0.112051337532044</v>
       </c>
       <c r="F15">
-        <v>0.0216338834117247</v>
+        <v>0.03183025917682707</v>
       </c>
       <c r="G15">
-        <v>0.05216709022038515</v>
+        <v>0.07675422718215541</v>
       </c>
       <c r="I15">
-        <v>0.9145039046505103</v>
+        <v>1.34552339722189</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.4253778551238885</v>
+        <v>0.6258648583332053</v>
       </c>
       <c r="C16">
-        <v>0.01794672</v>
+        <v>0.02640528</v>
       </c>
       <c r="D16">
-        <v>0.03463779513083746</v>
+        <v>0.05096311075296212</v>
       </c>
       <c r="E16">
-        <v>0.04008277252669649</v>
+        <v>0.05897438817475995</v>
       </c>
       <c r="F16">
-        <v>0.01658597728232226</v>
+        <v>0.02440319870223408</v>
       </c>
       <c r="G16">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="I16">
-        <v>0.5824509527657644</v>
+        <v>0.8569688775468038</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3305300901300487</v>
+        <v>0.4863139101913426</v>
       </c>
       <c r="C17">
-        <v>0.02528856000000001</v>
+        <v>0.03720744</v>
       </c>
       <c r="D17">
-        <v>0.01154593171027916</v>
+        <v>0.0169877035843207</v>
       </c>
       <c r="E17">
-        <v>0.0080165545053393</v>
+        <v>0.011794877634952</v>
       </c>
       <c r="F17">
-        <v>0.009374682811747363</v>
+        <v>0.0137931123099584</v>
       </c>
       <c r="G17">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="I17">
-        <v>0.4412701668961651</v>
+        <v>0.649247456501242</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2155631022587272</v>
+        <v>0.3171612457769623</v>
       </c>
       <c r="C18">
-        <v>0.02284128000000001</v>
+        <v>0.03360672000000001</v>
       </c>
       <c r="D18">
-        <v>0.02078267707850249</v>
+        <v>0.03057786645177726</v>
       </c>
       <c r="E18">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F18">
-        <v>0.01730710672937976</v>
+        <v>0.02546420734146167</v>
       </c>
       <c r="G18">
-        <v>0.03477806014692339</v>
+        <v>0.05116948478810361</v>
       </c>
       <c r="I18">
-        <v>0.3273053352242115</v>
+        <v>0.4815692796282088</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1283798031229753</v>
+        <v>0.188887141929391</v>
       </c>
       <c r="C19">
-        <v>0.02039399999999999</v>
+        <v>0.03000599999999999</v>
       </c>
       <c r="D19">
-        <v>0.02771023610466999</v>
+        <v>0.04077048860236971</v>
       </c>
       <c r="E19">
-        <v>0.00400827725266965</v>
+        <v>0.005897438817476</v>
       </c>
       <c r="F19">
-        <v>0.007932423917632384</v>
+        <v>0.01167109503150326</v>
       </c>
       <c r="G19">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="H19">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I19">
-        <v>0.2673715520508587</v>
+        <v>0.393387799884185</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1552054336262837</v>
+        <v>0.228356096959413</v>
       </c>
       <c r="C20">
-        <v>0.01549944</v>
+        <v>0.02280456</v>
       </c>
       <c r="D20">
-        <v>0.03463779513083746</v>
+        <v>0.05096311075296212</v>
       </c>
       <c r="E20">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F20">
-        <v>0.01586484783526477</v>
+        <v>0.02334219006300651</v>
       </c>
       <c r="G20">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H20">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I20">
-        <v>0.2991373874482099</v>
+        <v>0.4401253529357158</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2663401885685607</v>
+        <v>0.3918703392266468</v>
       </c>
       <c r="C21">
-        <v>0.007341840000000001</v>
+        <v>0.01080216</v>
       </c>
       <c r="D21">
-        <v>0.04849291318317246</v>
+        <v>0.07134835505414687</v>
       </c>
       <c r="E21">
-        <v>0.02805794076868754</v>
+        <v>0.04128207172233199</v>
       </c>
       <c r="F21">
-        <v>0.0281240484352421</v>
+        <v>0.04137933692987518</v>
       </c>
       <c r="G21">
-        <v>0.09998692292240488</v>
+        <v>0.1471122687657977</v>
       </c>
       <c r="I21">
-        <v>0.4783438538780677</v>
+        <v>0.7037945316987986</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.5355545518339044</v>
+        <v>0.7879694950636527</v>
       </c>
       <c r="C22">
-        <v>0.006526079999999998</v>
+        <v>0.009601920000000003</v>
       </c>
       <c r="D22">
-        <v>0.07158477660373075</v>
+        <v>0.1053237622227884</v>
       </c>
       <c r="E22">
-        <v>0.1162400403274198</v>
+        <v>0.1710257257068039</v>
       </c>
       <c r="F22">
-        <v>0.0793242391763239</v>
+        <v>0.1167109503150326</v>
       </c>
       <c r="G22">
-        <v>0.1825848157713481</v>
+        <v>0.2686397951375439</v>
       </c>
       <c r="H22">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I22">
-        <v>1.001901371394125</v>
+        <v>1.474112609103271</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.017457842661193</v>
+        <v>1.497001080067262</v>
       </c>
       <c r="C23">
-        <v>0.01468368</v>
+        <v>0.02160432</v>
       </c>
       <c r="D23">
-        <v>0.122386876128959</v>
+        <v>0.1800696579937991</v>
       </c>
       <c r="E23">
-        <v>0.3366952892242505</v>
+        <v>0.4953848606679836</v>
       </c>
       <c r="F23">
-        <v>0.1168229704233133</v>
+        <v>0.1718833995548662</v>
       </c>
       <c r="G23">
-        <v>0.2564881935835601</v>
+        <v>0.3773749503122643</v>
       </c>
       <c r="H23">
-        <v>0.06052120608838862</v>
+        <v>0.08904576394469885</v>
       </c>
       <c r="I23">
-        <v>1.925056058109665</v>
+        <v>2.832364032540875</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.463912978894823</v>
+        <v>2.153877260209771</v>
       </c>
       <c r="C24">
-        <v>0.02202552</v>
+        <v>0.03240648</v>
       </c>
       <c r="D24">
-        <v>0.1293144351551264</v>
+        <v>0.1902622801443919</v>
       </c>
       <c r="E24">
-        <v>0.364753229992938</v>
+        <v>0.5366669323903159</v>
       </c>
       <c r="F24">
-        <v>0.1233131354468308</v>
+        <v>0.1814324773079144</v>
       </c>
       <c r="G24">
-        <v>0.3260443138774075</v>
+        <v>0.4797139198884705</v>
       </c>
       <c r="H24">
-        <v>0.09078180913258291</v>
+        <v>0.1335686459170483</v>
       </c>
       <c r="I24">
-        <v>2.520145422499709</v>
+        <v>3.707927995857912</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.591334723785539</v>
+        <v>2.341354796602375</v>
       </c>
       <c r="C25">
-        <v>0.03752496000000001</v>
+        <v>0.05521104</v>
       </c>
       <c r="D25">
-        <v>0.161643043943908</v>
+        <v>0.23782785018049</v>
       </c>
       <c r="E25">
-        <v>0.172355921864795</v>
+        <v>0.2535898691514679</v>
       </c>
       <c r="F25">
-        <v>0.1254765237880032</v>
+        <v>0.1846155032255969</v>
       </c>
       <c r="G25">
-        <v>0.2217101334366368</v>
+        <v>0.3262054655241604</v>
       </c>
       <c r="H25">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I25">
-        <v>2.350392777544474</v>
+        <v>3.458168367313889</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.491696667630393</v>
+        <v>2.19475582077658</v>
       </c>
       <c r="C26">
-        <v>0.03997223999999999</v>
+        <v>0.05881176000000002</v>
       </c>
       <c r="D26">
-        <v>0.1570246712597965</v>
+        <v>0.2310327687467615</v>
       </c>
       <c r="E26">
-        <v>0.1402897038434377</v>
+        <v>0.2064103586116599</v>
       </c>
       <c r="F26">
-        <v>0.1326878182585781</v>
+        <v>0.1952255896178727</v>
       </c>
       <c r="G26">
-        <v>0.2434464210284639</v>
+        <v>0.3581863935167252</v>
       </c>
       <c r="H26">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I26">
-        <v>2.245464992746261</v>
+        <v>3.303786533899399</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.405471426726902</v>
+        <v>2.067891322465794</v>
       </c>
       <c r="C27">
-        <v>0.05139287999999998</v>
+        <v>0.07561512000000001</v>
       </c>
       <c r="D27">
-        <v>0.1916624663906339</v>
+        <v>0.2819958794997235</v>
       </c>
       <c r="E27">
-        <v>0.05611588153737509</v>
+        <v>0.08256414344466398</v>
       </c>
       <c r="F27">
-        <v>0.1456681483056129</v>
+        <v>0.2143237451239689</v>
       </c>
       <c r="G27">
-        <v>0.2130156183999061</v>
+        <v>0.313413094327135</v>
       </c>
       <c r="H27">
-        <v>0.1059121106546801</v>
+        <v>0.155830086903223</v>
       </c>
       <c r="I27">
-        <v>2.16923853201511</v>
+        <v>3.191633391764509</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.424632591372121</v>
+        <v>2.096083433201525</v>
       </c>
       <c r="C28">
-        <v>0.04731407999999999</v>
+        <v>0.06961392000000001</v>
       </c>
       <c r="D28">
-        <v>0.150097112233629</v>
+        <v>0.220840146596169</v>
       </c>
       <c r="E28">
-        <v>0.05611588153737509</v>
+        <v>0.08256414344466398</v>
       </c>
       <c r="F28">
-        <v>0.1305244299174057</v>
+        <v>0.1920425637001899</v>
       </c>
       <c r="G28">
-        <v>0.2260573909550024</v>
+        <v>0.3326016511226734</v>
       </c>
       <c r="H28">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I28">
-        <v>2.100306125944621</v>
+        <v>3.090212102338645</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.486906376469089</v>
+        <v>2.187707793092646</v>
       </c>
       <c r="C29">
-        <v>0.05057712000000001</v>
+        <v>0.07441488</v>
       </c>
       <c r="D29">
-        <v>0.1270052488130706</v>
+        <v>0.1868647394275278</v>
       </c>
       <c r="E29">
-        <v>0.06012415879004475</v>
+        <v>0.0884615822621399</v>
       </c>
       <c r="F29">
-        <v>0.1305244299174057</v>
+        <v>0.1920425637001899</v>
       </c>
       <c r="G29">
-        <v>0.1825848157713481</v>
+        <v>0.2686397951375439</v>
       </c>
       <c r="H29">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I29">
-        <v>2.07806962048655</v>
+        <v>3.057495196249847</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.543431812172486</v>
+        <v>2.270874519763052</v>
       </c>
       <c r="C30">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D30">
-        <v>0.1062225717345683</v>
+        <v>0.1562868729757504</v>
       </c>
       <c r="E30">
-        <v>0.06814071329538403</v>
+        <v>0.1002564598970919</v>
       </c>
       <c r="F30">
-        <v>0.1622541255879352</v>
+        <v>0.2387269438262031</v>
       </c>
       <c r="G30">
-        <v>0.2043211033631751</v>
+        <v>0.3006207231301087</v>
       </c>
       <c r="H30">
-        <v>0.06052120608838862</v>
+        <v>0.08904576394469885</v>
       </c>
       <c r="I30">
-        <v>2.188942572241937</v>
+        <v>3.220624243536904</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.387268320313941</v>
+        <v>2.041108817266851</v>
       </c>
       <c r="C31">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D31">
-        <v>0.1408603668654057</v>
+        <v>0.2072499837287126</v>
       </c>
       <c r="E31">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F31">
-        <v>0.1269187826821181</v>
+        <v>0.1867375205040521</v>
       </c>
       <c r="G31">
-        <v>0.1434594981060592</v>
+        <v>0.2110741247509275</v>
       </c>
       <c r="H31">
-        <v>0.03026060304419431</v>
+        <v>0.04452288197234942</v>
       </c>
       <c r="I31">
-        <v>1.944967601559772</v>
+        <v>2.86166018693746</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.54534792863701</v>
+        <v>2.273693730836625</v>
       </c>
       <c r="C32">
-        <v>0.03915648</v>
+        <v>0.05761152000000002</v>
       </c>
       <c r="D32">
-        <v>0.2124451434691366</v>
+        <v>0.3125737459515007</v>
       </c>
       <c r="E32">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F32">
-        <v>0.1456681483056129</v>
+        <v>0.2143237451239689</v>
       </c>
       <c r="G32">
-        <v>0.1347649830693283</v>
+        <v>0.1982817535539014</v>
       </c>
       <c r="H32">
-        <v>0.07060807376978673</v>
+        <v>0.1038867246021487</v>
       </c>
       <c r="I32">
-        <v>2.220139747798929</v>
+        <v>3.266525118782712</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.553012394495099</v>
+        <v>2.284970575130916</v>
       </c>
       <c r="C33">
-        <v>0.04078799999999998</v>
+        <v>0.06001199999999998</v>
       </c>
       <c r="D33">
-        <v>0.1801165346803549</v>
+        <v>0.2650081759154031</v>
       </c>
       <c r="E33">
-        <v>0.1042152085694109</v>
+        <v>0.1533334092543759</v>
       </c>
       <c r="F33">
-        <v>0.1348512065997506</v>
+        <v>0.1984086155355554</v>
       </c>
       <c r="G33">
-        <v>0.1695430432162517</v>
+        <v>0.2494512383420051</v>
       </c>
       <c r="H33">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I33">
-        <v>2.248091027489954</v>
+        <v>3.30765025845168</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.853842679425055</v>
+        <v>2.727586713681876</v>
       </c>
       <c r="C34">
-        <v>0.03507767999999999</v>
+        <v>0.05161032000000002</v>
       </c>
       <c r="D34">
-        <v>0.1570246712597965</v>
+        <v>0.2310327687467615</v>
       </c>
       <c r="E34">
-        <v>0.2124386943914913</v>
+        <v>0.3125642573262278</v>
       </c>
       <c r="F34">
-        <v>0.1124961937409684</v>
+        <v>0.1655173477195007</v>
       </c>
       <c r="G34">
-        <v>0.09563966540403944</v>
+        <v>0.140716083167285</v>
       </c>
       <c r="H34">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I34">
-        <v>2.51695392262834</v>
+        <v>3.703232293928901</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.93527762916724</v>
+        <v>2.847403184308732</v>
       </c>
       <c r="C35">
-        <v>0.02692008</v>
+        <v>0.03960791999999999</v>
       </c>
       <c r="D35">
-        <v>0.1293144351551264</v>
+        <v>0.1902622801443919</v>
       </c>
       <c r="E35">
-        <v>0.2364883579075093</v>
+        <v>0.3479488902310837</v>
       </c>
       <c r="F35">
-        <v>0.08725666309395626</v>
+        <v>0.1283820453465357</v>
       </c>
       <c r="G35">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H35">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I35">
-        <v>2.516466241306541</v>
+        <v>3.702514761039723</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.456248513036734</v>
+        <v>2.142600415915478</v>
       </c>
       <c r="C36">
-        <v>0.02202552</v>
+        <v>0.03240648</v>
       </c>
       <c r="D36">
-        <v>0.1316236214971823</v>
+        <v>0.1936598208612559</v>
       </c>
       <c r="E36">
-        <v>0.2485131896655181</v>
+        <v>0.3656412066835118</v>
       </c>
       <c r="F36">
-        <v>0.05408470852931176</v>
+        <v>0.07957564794206765</v>
       </c>
       <c r="G36">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H36">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I36">
-        <v>1.994227069670992</v>
+        <v>2.934136385826606</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.351820165720284</v>
+        <v>1.988953412405752</v>
       </c>
       <c r="C37">
-        <v>0.02039399999999999</v>
+        <v>0.03000599999999999</v>
       </c>
       <c r="D37">
-        <v>0.07620314928784241</v>
+        <v>0.1121188436565167</v>
       </c>
       <c r="E37">
-        <v>0.2445049124128484</v>
+        <v>0.3597437678660359</v>
       </c>
       <c r="F37">
-        <v>0.04687341405873684</v>
+        <v>0.06896556154979198</v>
       </c>
       <c r="G37">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="H37">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I37">
-        <v>1.823785886973322</v>
+        <v>2.683363701310267</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.074941336596853</v>
+        <v>1.581577412274453</v>
       </c>
       <c r="C38">
-        <v>0.0122364</v>
+        <v>0.01800360000000001</v>
       </c>
       <c r="D38">
-        <v>0.06234803123550743</v>
+        <v>0.09173359935533178</v>
       </c>
       <c r="E38">
-        <v>0.1683476446121253</v>
+        <v>0.2476924303339918</v>
       </c>
       <c r="F38">
-        <v>0.03028743677641456</v>
+        <v>0.04456236284755791</v>
       </c>
       <c r="G38">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="H38">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I38">
-        <v>1.432151094714511</v>
+        <v>2.107145520643505</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.7693207605055912</v>
+        <v>1.131913246039558</v>
       </c>
       <c r="C39">
-        <v>0.01713096</v>
+        <v>0.02520504000000001</v>
       </c>
       <c r="D39">
-        <v>0.03001942244672582</v>
+        <v>0.04416802931923383</v>
       </c>
       <c r="E39">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F39">
-        <v>0.0216338834117247</v>
+        <v>0.03183025917682707</v>
       </c>
       <c r="G39">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="H39">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I39">
-        <v>0.9688568936178469</v>
+        <v>1.425493770221492</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.4531615438594579</v>
+        <v>0.6667434189000149</v>
       </c>
       <c r="C40">
-        <v>0.01957824</v>
+        <v>0.02880576000000001</v>
       </c>
       <c r="D40">
-        <v>0.03232860878878161</v>
+        <v>0.04756557003609799</v>
       </c>
       <c r="E40">
-        <v>0.0320662180213572</v>
+        <v>0.047179510539808</v>
       </c>
       <c r="F40">
-        <v>0.01730710672937976</v>
+        <v>0.02546420734146167</v>
       </c>
       <c r="G40">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="I40">
-        <v>0.6153033226560924</v>
+        <v>0.9053050651965638</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.3496912547752689</v>
+        <v>0.5145060209270722</v>
       </c>
       <c r="C41">
-        <v>0.02039399999999999</v>
+        <v>0.03000599999999999</v>
       </c>
       <c r="D41">
-        <v>0.01154593171027916</v>
+        <v>0.0169877035843207</v>
       </c>
       <c r="E41">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F41">
-        <v>0.01370145949409231</v>
+        <v>0.02015916414532382</v>
       </c>
       <c r="G41">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="I41">
-        <v>0.4852691328025313</v>
+        <v>0.7139837991013409</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2270598010458592</v>
+        <v>0.3340765122184003</v>
       </c>
       <c r="C42">
-        <v>0.02284128000000001</v>
+        <v>0.03360672000000001</v>
       </c>
       <c r="D42">
-        <v>0.01847349073644663</v>
+        <v>0.02718032573491313</v>
       </c>
       <c r="E42">
-        <v>0.02004138626334824</v>
+        <v>0.02948719408737998</v>
       </c>
       <c r="F42">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G42">
-        <v>0.06520886277548152</v>
+        <v>0.09594278397769425</v>
       </c>
       <c r="I42">
-        <v>0.3680474097622853</v>
+        <v>0.541513708802939</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1590376665553276</v>
+        <v>0.233994519106559</v>
       </c>
       <c r="C43">
-        <v>0.02528856000000001</v>
+        <v>0.03720744</v>
       </c>
       <c r="D43">
-        <v>0.03463779513083746</v>
+        <v>0.05096311075296212</v>
       </c>
       <c r="E43">
-        <v>0.0080165545053393</v>
+        <v>0.011794877634952</v>
       </c>
       <c r="F43">
-        <v>0.01153807115291984</v>
+        <v>0.0169761382276411</v>
       </c>
       <c r="G43">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="H43">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I43">
-        <v>0.2870346563687777</v>
+        <v>0.4223184220359686</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1762827147360258</v>
+        <v>0.259367418768716</v>
       </c>
       <c r="C44">
-        <v>0.02528856000000001</v>
+        <v>0.03720744</v>
       </c>
       <c r="D44">
-        <v>0.02309186342055831</v>
+        <v>0.03397540716864141</v>
       </c>
       <c r="E44">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F44">
-        <v>0.01586484783526477</v>
+        <v>0.02334219006300651</v>
       </c>
       <c r="G44">
-        <v>0.02608354511019257</v>
+        <v>0.03837711359107771</v>
       </c>
       <c r="I44">
-        <v>0.2826446401127201</v>
+        <v>0.4158593248613456</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2375984416007307</v>
+        <v>0.3495821731230511</v>
       </c>
       <c r="C45">
-        <v>0.008157599999999996</v>
+        <v>0.0120024</v>
       </c>
       <c r="D45">
-        <v>0.04387454049906082</v>
+        <v>0.06455327362041867</v>
       </c>
       <c r="E45">
-        <v>0.02404966351601789</v>
+        <v>0.03538463290485598</v>
       </c>
       <c r="F45">
-        <v>0.02668178954112714</v>
+        <v>0.03925731965142001</v>
       </c>
       <c r="G45">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H45">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I45">
-        <v>0.4170501182584833</v>
+        <v>0.6136121333953137</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.5518415417823417</v>
+        <v>0.8119327891890238</v>
       </c>
       <c r="C46">
-        <v>0.006526079999999998</v>
+        <v>0.009601920000000003</v>
       </c>
       <c r="D46">
-        <v>0.06927559026167493</v>
+        <v>0.1019262215059242</v>
       </c>
       <c r="E46">
-        <v>0.1202483175800895</v>
+        <v>0.1769231645242798</v>
       </c>
       <c r="F46">
-        <v>0.08220875696455389</v>
+        <v>0.1209549848719428</v>
       </c>
       <c r="G46">
-        <v>0.1912793308080789</v>
+        <v>0.28143216633457</v>
       </c>
       <c r="H46">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I46">
-        <v>1.031466485078137</v>
+        <v>1.517612207083191</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.049073764325805</v>
+        <v>1.543518062781217</v>
       </c>
       <c r="C47">
-        <v>0.01386792</v>
+        <v>0.02040408</v>
       </c>
       <c r="D47">
-        <v>0.1177685034448473</v>
+        <v>0.1732745765600711</v>
       </c>
       <c r="E47">
-        <v>0.3487201209822596</v>
+        <v>0.5130771771204115</v>
       </c>
       <c r="F47">
-        <v>0.1211497471056582</v>
+        <v>0.1782494513902317</v>
       </c>
       <c r="G47">
-        <v>0.2695299661386566</v>
+        <v>0.3965635071078027</v>
       </c>
       <c r="H47">
-        <v>0.05547777224768956</v>
+        <v>0.08162528361597397</v>
       </c>
       <c r="I47">
-        <v>1.975587794244916</v>
+        <v>2.906712138575708</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.508941715811089</v>
+        <v>2.220128720438736</v>
       </c>
       <c r="C48">
-        <v>0.02120976</v>
+        <v>0.03120624</v>
       </c>
       <c r="D48">
-        <v>0.1246960624710149</v>
+        <v>0.1834671987106636</v>
       </c>
       <c r="E48">
-        <v>0.3807863390036164</v>
+        <v>0.5602566876602196</v>
       </c>
       <c r="F48">
-        <v>0.1276399121291756</v>
+        <v>0.1877985291432797</v>
       </c>
       <c r="G48">
-        <v>0.3434333439508694</v>
+        <v>0.5052986622825227</v>
       </c>
       <c r="H48">
-        <v>0.08573837529188384</v>
+        <v>0.1261481655883234</v>
       </c>
       <c r="I48">
-        <v>2.592445508657649</v>
+        <v>3.814304203823745</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.64115375186311</v>
+        <v>2.414654284515276</v>
       </c>
       <c r="C49">
-        <v>0.0367092</v>
+        <v>0.05401080000000002</v>
       </c>
       <c r="D49">
-        <v>0.1570246712597965</v>
+        <v>0.2310327687467615</v>
       </c>
       <c r="E49">
-        <v>0.1803724763701342</v>
+        <v>0.2653847467864198</v>
       </c>
       <c r="F49">
-        <v>0.1305244299174057</v>
+        <v>0.1920425637001899</v>
       </c>
       <c r="G49">
-        <v>0.2347519059917332</v>
+        <v>0.3453940223196995</v>
       </c>
       <c r="H49">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I49">
-        <v>2.415840472287073</v>
+        <v>3.554462548369421</v>
       </c>
     </row>
   </sheetData>
